--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
@@ -4452,28 +4452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.4110366761817</v>
+        <v>185.9837221484838</v>
       </c>
       <c r="AB2" t="n">
-        <v>197.5895513455619</v>
+        <v>254.4711336661789</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.7318818838745</v>
+        <v>230.1847658216322</v>
       </c>
       <c r="AD2" t="n">
-        <v>144411.0366761817</v>
+        <v>185983.7221484839</v>
       </c>
       <c r="AE2" t="n">
-        <v>197589.5513455619</v>
+        <v>254471.1336661789</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.460241668467762e-06</v>
+        <v>4.159160608390087e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.237847222222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>178731.8818838745</v>
+        <v>230184.7658216322</v>
       </c>
     </row>
     <row r="3">
@@ -4558,28 +4558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.080004221842</v>
+        <v>151.6526001855931</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.6163181632996</v>
+        <v>207.4977780143683</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.2417081491656</v>
+        <v>187.6944813056967</v>
       </c>
       <c r="AD3" t="n">
-        <v>110080.004221842</v>
+        <v>151652.6001855932</v>
       </c>
       <c r="AE3" t="n">
-        <v>150616.3181632996</v>
+        <v>207497.7780143683</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.97977696245417e-06</v>
+        <v>5.037460800241726e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>136241.7081491656</v>
+        <v>187694.4813056967</v>
       </c>
     </row>
     <row r="4">
@@ -4664,28 +4664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.604951975415</v>
+        <v>137.7631532431365</v>
       </c>
       <c r="AB4" t="n">
-        <v>145.8615983712554</v>
+        <v>188.4936239485559</v>
       </c>
       <c r="AC4" t="n">
-        <v>131.9407721407814</v>
+        <v>170.5040570314216</v>
       </c>
       <c r="AD4" t="n">
-        <v>106604.951975415</v>
+        <v>137763.1532431365</v>
       </c>
       <c r="AE4" t="n">
-        <v>145861.5983712554</v>
+        <v>188493.6239485559</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.16613556552666e-06</v>
+        <v>5.352509265141694e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.397569444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>131940.7721407814</v>
+        <v>170504.0570314216</v>
       </c>
     </row>
     <row r="5">
@@ -4770,28 +4770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>104.6673449346714</v>
+        <v>135.8255462023929</v>
       </c>
       <c r="AB5" t="n">
-        <v>143.2104789369217</v>
+        <v>185.8425045142222</v>
       </c>
       <c r="AC5" t="n">
-        <v>129.5426718243902</v>
+        <v>168.1059567150303</v>
       </c>
       <c r="AD5" t="n">
-        <v>104667.3449346714</v>
+        <v>135825.5462023929</v>
       </c>
       <c r="AE5" t="n">
-        <v>143210.4789369217</v>
+        <v>185842.5045142222</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.272176038191781e-06</v>
+        <v>5.531775945507496e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.189236111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>129542.6718243902</v>
+        <v>168105.9567150303</v>
       </c>
     </row>
     <row r="6">
@@ -4876,28 +4876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>103.5804716072905</v>
+        <v>134.738672875012</v>
       </c>
       <c r="AB6" t="n">
-        <v>141.7233709009328</v>
+        <v>184.3553964782332</v>
       </c>
       <c r="AC6" t="n">
-        <v>128.1974912921863</v>
+        <v>166.7607761828265</v>
       </c>
       <c r="AD6" t="n">
-        <v>103580.4716072905</v>
+        <v>134738.672875012</v>
       </c>
       <c r="AE6" t="n">
-        <v>141723.3709009328</v>
+        <v>184355.3964782332</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.329876246958715e-06</v>
+        <v>5.629321011293158e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.085069444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>128197.4912921863</v>
+        <v>166760.7761828265</v>
       </c>
     </row>
     <row r="7">
@@ -4982,28 +4982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>103.0963062958522</v>
+        <v>134.2545075635737</v>
       </c>
       <c r="AB7" t="n">
-        <v>141.0609145619572</v>
+        <v>183.6929401392577</v>
       </c>
       <c r="AC7" t="n">
-        <v>127.598258856439</v>
+        <v>166.1615437470792</v>
       </c>
       <c r="AD7" t="n">
-        <v>103096.3062958522</v>
+        <v>134254.5075635737</v>
       </c>
       <c r="AE7" t="n">
-        <v>141060.9145619572</v>
+        <v>183692.9401392577</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.352867632733564e-06</v>
+        <v>5.66818908969076e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>127598.258856439</v>
+        <v>166161.5437470792</v>
       </c>
     </row>
     <row r="8">
@@ -5088,28 +5088,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>91.88808480213518</v>
+        <v>133.3753399113147</v>
       </c>
       <c r="AB8" t="n">
-        <v>125.725331442427</v>
+        <v>182.490024171298</v>
       </c>
       <c r="AC8" t="n">
-        <v>113.7262822662058</v>
+        <v>165.0734323907981</v>
       </c>
       <c r="AD8" t="n">
-        <v>91888.08480213518</v>
+        <v>133375.3399113147</v>
       </c>
       <c r="AE8" t="n">
-        <v>125725.331442427</v>
+        <v>182490.024171298</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.381601029575027e-06</v>
+        <v>5.716764322693249e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.989583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>113726.2822662058</v>
+        <v>165073.4323907981</v>
       </c>
     </row>
     <row r="9">
@@ -5194,28 +5194,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>91.28637598445408</v>
+        <v>122.5298285981961</v>
       </c>
       <c r="AB9" t="n">
-        <v>124.9020468925566</v>
+        <v>167.6507171225063</v>
       </c>
       <c r="AC9" t="n">
-        <v>112.9815708382877</v>
+        <v>151.6503679796401</v>
       </c>
       <c r="AD9" t="n">
-        <v>91286.37598445408</v>
+        <v>122529.8285981961</v>
       </c>
       <c r="AE9" t="n">
-        <v>124902.0468925566</v>
+        <v>167650.7171225063</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.411524843344934e-06</v>
+        <v>5.767352014577237e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.9375</v>
       </c>
       <c r="AH9" t="n">
-        <v>112981.5708382876</v>
+        <v>151650.3679796401</v>
       </c>
     </row>
     <row r="10">
@@ -5300,28 +5300,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>90.44412379400234</v>
+        <v>121.6875764077444</v>
       </c>
       <c r="AB10" t="n">
-        <v>123.7496402880369</v>
+        <v>166.4983105179866</v>
       </c>
       <c r="AC10" t="n">
-        <v>111.9391483026901</v>
+        <v>150.6079454440426</v>
       </c>
       <c r="AD10" t="n">
-        <v>90444.12379400234</v>
+        <v>121687.5764077444</v>
       </c>
       <c r="AE10" t="n">
-        <v>123749.6402880369</v>
+        <v>166498.3105179866</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.442429000467676e-06</v>
+        <v>5.819597025540107e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.885416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>111939.1483026901</v>
+        <v>150607.9454440426</v>
       </c>
     </row>
     <row r="11">
@@ -5406,28 +5406,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>90.34032258121016</v>
+        <v>121.5837751949522</v>
       </c>
       <c r="AB11" t="n">
-        <v>123.6076148893084</v>
+        <v>166.3562851192581</v>
       </c>
       <c r="AC11" t="n">
-        <v>111.8106776086823</v>
+        <v>150.4794747500347</v>
       </c>
       <c r="AD11" t="n">
-        <v>90340.32258121016</v>
+        <v>121583.7751949522</v>
       </c>
       <c r="AE11" t="n">
-        <v>123607.6148893084</v>
+        <v>166356.2851192581</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.444949883374969e-06</v>
+        <v>5.823858703171519e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.885416666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>111810.6776086823</v>
+        <v>150479.4747500347</v>
       </c>
     </row>
     <row r="12">
@@ -5512,28 +5512,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>89.82423496832214</v>
+        <v>121.0676875820642</v>
       </c>
       <c r="AB12" t="n">
-        <v>122.9014810491767</v>
+        <v>165.6501512791265</v>
       </c>
       <c r="AC12" t="n">
-        <v>111.1719361911876</v>
+        <v>149.84073333254</v>
       </c>
       <c r="AD12" t="n">
-        <v>89824.23496832214</v>
+        <v>121067.6875820642</v>
       </c>
       <c r="AE12" t="n">
-        <v>122901.4810491767</v>
+        <v>165650.1512791265</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.447937596450279e-06</v>
+        <v>5.828909580364304e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.876736111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>111171.9361911876</v>
+        <v>149840.73333254</v>
       </c>
     </row>
     <row r="13">
@@ -5618,28 +5618,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>89.17656307607319</v>
+        <v>120.4200156898152</v>
       </c>
       <c r="AB13" t="n">
-        <v>122.0153077929349</v>
+        <v>164.7639780228846</v>
       </c>
       <c r="AC13" t="n">
-        <v>110.3703380667692</v>
+        <v>149.0391352081216</v>
       </c>
       <c r="AD13" t="n">
-        <v>89176.56307607319</v>
+        <v>120420.0156898152</v>
       </c>
       <c r="AE13" t="n">
-        <v>122015.3077929349</v>
+        <v>164763.9780228846</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.479191876199035e-06</v>
+        <v>5.881746490998204e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.824652777777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>110370.3380667692</v>
+        <v>149039.1352081216</v>
       </c>
     </row>
     <row r="14">
@@ -5724,28 +5724,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>89.06836943203537</v>
+        <v>120.3118220457774</v>
       </c>
       <c r="AB14" t="n">
-        <v>121.8672724759957</v>
+        <v>164.6159427059455</v>
       </c>
       <c r="AC14" t="n">
-        <v>110.2364310327098</v>
+        <v>148.9052281740622</v>
       </c>
       <c r="AD14" t="n">
-        <v>89068.36943203537</v>
+        <v>120311.8220457774</v>
       </c>
       <c r="AE14" t="n">
-        <v>121867.2724759957</v>
+        <v>164615.9427059455</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.474873697144875e-06</v>
+        <v>5.874446395055508e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>110236.4310327098</v>
+        <v>148905.2281740622</v>
       </c>
     </row>
     <row r="15">
@@ -5830,28 +5830,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>88.6387286098782</v>
+        <v>119.8821812236203</v>
       </c>
       <c r="AB15" t="n">
-        <v>121.2794189487052</v>
+        <v>164.028089178655</v>
       </c>
       <c r="AC15" t="n">
-        <v>109.7046814210061</v>
+        <v>148.3734785623585</v>
       </c>
       <c r="AD15" t="n">
-        <v>88638.72860987821</v>
+        <v>119882.1812236203</v>
       </c>
       <c r="AE15" t="n">
-        <v>121279.4189487052</v>
+        <v>164028.089178655</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.475153795245686e-06</v>
+        <v>5.87491991479233e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>109704.6814210061</v>
+        <v>148373.4785623585</v>
       </c>
     </row>
     <row r="16">
@@ -5936,28 +5936,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>88.0272270412275</v>
+        <v>119.2706796549696</v>
       </c>
       <c r="AB16" t="n">
-        <v>120.4427355249325</v>
+        <v>163.1914057548823</v>
       </c>
       <c r="AC16" t="n">
-        <v>108.9478498889055</v>
+        <v>147.6166470302579</v>
       </c>
       <c r="AD16" t="n">
-        <v>88027.22704122751</v>
+        <v>119270.6796549696</v>
       </c>
       <c r="AE16" t="n">
-        <v>120442.7355249325</v>
+        <v>163191.4057548823</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.470999006750332e-06</v>
+        <v>5.867896038696114e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>108947.8498889054</v>
+        <v>147616.6470302579</v>
       </c>
     </row>
     <row r="17">
@@ -6042,28 +6042,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>87.43057819657736</v>
+        <v>118.6740308103194</v>
       </c>
       <c r="AB17" t="n">
-        <v>119.6263742533933</v>
+        <v>162.3750444833431</v>
       </c>
       <c r="AC17" t="n">
-        <v>108.2094009913514</v>
+        <v>146.8781981327039</v>
       </c>
       <c r="AD17" t="n">
-        <v>87430.57819657736</v>
+        <v>118674.0308103194</v>
       </c>
       <c r="AE17" t="n">
-        <v>119626.3742533933</v>
+        <v>162375.0444833431</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.505311024099601e-06</v>
+        <v>5.925902206457005e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.78125</v>
       </c>
       <c r="AH17" t="n">
-        <v>108209.4009913514</v>
+        <v>146878.1981327039</v>
       </c>
     </row>
   </sheetData>
@@ -6339,28 +6339,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.873650571597</v>
+        <v>160.0653297464448</v>
       </c>
       <c r="AB2" t="n">
-        <v>164.016417164211</v>
+        <v>219.008445742954</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.3629205085913</v>
+        <v>198.1065870615934</v>
       </c>
       <c r="AD2" t="n">
-        <v>119873.650571597</v>
+        <v>160065.3297464448</v>
       </c>
       <c r="AE2" t="n">
-        <v>164016.417164211</v>
+        <v>219008.445742954</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.836871454668564e-06</v>
+        <v>4.912868474580504e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.387152777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>148362.9205085913</v>
+        <v>198106.5870615934</v>
       </c>
     </row>
     <row r="3">
@@ -6445,28 +6445,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.0908127238465</v>
+        <v>131.2772649094059</v>
       </c>
       <c r="AB3" t="n">
-        <v>138.3169097806083</v>
+        <v>179.6193453931514</v>
       </c>
       <c r="AC3" t="n">
-        <v>125.1161380401863</v>
+        <v>162.4767271662139</v>
       </c>
       <c r="AD3" t="n">
-        <v>101090.8127238465</v>
+        <v>131277.2649094059</v>
       </c>
       <c r="AE3" t="n">
-        <v>138316.9097806083</v>
+        <v>179619.3453931514</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.301328687279682e-06</v>
+        <v>5.717211333376923e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.345486111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>125116.1380401863</v>
+        <v>162476.7271662139</v>
       </c>
     </row>
     <row r="4">
@@ -6551,28 +6551,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>98.21185747481307</v>
+        <v>128.3983096603725</v>
       </c>
       <c r="AB4" t="n">
-        <v>134.3777961983411</v>
+        <v>175.6802318108842</v>
       </c>
       <c r="AC4" t="n">
-        <v>121.5529679296288</v>
+        <v>158.9135570556564</v>
       </c>
       <c r="AD4" t="n">
-        <v>98211.85747481308</v>
+        <v>128398.3096603725</v>
       </c>
       <c r="AE4" t="n">
-        <v>134377.7961983411</v>
+        <v>175680.2318108842</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.486024989449812e-06</v>
+        <v>6.037066728590533e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>121552.9679296288</v>
+        <v>158913.5570556564</v>
       </c>
     </row>
     <row r="5">
@@ -6657,28 +6657,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>86.89077890520183</v>
+        <v>117.1624824367818</v>
       </c>
       <c r="AB5" t="n">
-        <v>118.8877970486697</v>
+        <v>160.3068773138621</v>
       </c>
       <c r="AC5" t="n">
-        <v>107.5413125584468</v>
+        <v>145.0074139351866</v>
       </c>
       <c r="AD5" t="n">
-        <v>86890.77890520183</v>
+        <v>117162.4824367818</v>
       </c>
       <c r="AE5" t="n">
-        <v>118887.7970486697</v>
+        <v>160306.8773138621</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.560975613313858e-06</v>
+        <v>6.166865545003536e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.885416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>107541.3125584468</v>
+        <v>145007.4139351866</v>
       </c>
     </row>
     <row r="6">
@@ -6763,28 +6763,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>86.45101557517255</v>
+        <v>116.7227191067525</v>
       </c>
       <c r="AB6" t="n">
-        <v>118.2860934595351</v>
+        <v>159.7051737247275</v>
       </c>
       <c r="AC6" t="n">
-        <v>106.9970347153627</v>
+        <v>144.4631360921025</v>
       </c>
       <c r="AD6" t="n">
-        <v>86451.01557517255</v>
+        <v>116722.7191067525</v>
       </c>
       <c r="AE6" t="n">
-        <v>118286.0934595351</v>
+        <v>159705.1737247275</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.588043799316304e-06</v>
+        <v>6.213741986111452e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.842013888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>106997.0347153627</v>
+        <v>144463.1360921025</v>
       </c>
     </row>
     <row r="7">
@@ -6869,28 +6869,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>85.65039318147562</v>
+        <v>115.9220967130556</v>
       </c>
       <c r="AB7" t="n">
-        <v>117.1906465795123</v>
+        <v>158.6097268447047</v>
       </c>
       <c r="AC7" t="n">
-        <v>106.0061357480996</v>
+        <v>143.4722371248394</v>
       </c>
       <c r="AD7" t="n">
-        <v>85650.39318147562</v>
+        <v>115922.0967130556</v>
       </c>
       <c r="AE7" t="n">
-        <v>117190.6465795123</v>
+        <v>158609.7268447047</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.621510798245288e-06</v>
+        <v>6.271699833904113e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.789930555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>106006.1357480996</v>
+        <v>143472.2371248394</v>
       </c>
     </row>
     <row r="8">
@@ -6975,28 +6975,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>84.96992337711454</v>
+        <v>115.2416269086945</v>
       </c>
       <c r="AB8" t="n">
-        <v>116.2595977729769</v>
+        <v>157.6786780381693</v>
       </c>
       <c r="AC8" t="n">
-        <v>105.1639449329244</v>
+        <v>142.6300463096643</v>
       </c>
       <c r="AD8" t="n">
-        <v>84969.92337711454</v>
+        <v>115241.6269086945</v>
       </c>
       <c r="AE8" t="n">
-        <v>116259.5977729769</v>
+        <v>157678.6780381693</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.6530219336005e-06</v>
+        <v>6.326270534747852e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.737847222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>105163.9449329244</v>
+        <v>142630.0463096643</v>
       </c>
     </row>
     <row r="9">
@@ -7081,28 +7081,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>84.09569349994554</v>
+        <v>114.3673970315255</v>
       </c>
       <c r="AB9" t="n">
-        <v>115.0634378867347</v>
+        <v>156.4825181519271</v>
       </c>
       <c r="AC9" t="n">
-        <v>104.0819448674038</v>
+        <v>141.5480462441437</v>
       </c>
       <c r="AD9" t="n">
-        <v>84095.69349994554</v>
+        <v>114367.3970315255</v>
       </c>
       <c r="AE9" t="n">
-        <v>115063.4378867347</v>
+        <v>156482.5181519271</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.693684578763855e-06</v>
+        <v>6.396689737982226e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.677083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>104081.9448674038</v>
+        <v>141548.0462441437</v>
       </c>
     </row>
     <row r="10">
@@ -7187,28 +7187,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>83.88799745136437</v>
+        <v>114.1597009829443</v>
       </c>
       <c r="AB10" t="n">
-        <v>114.7792589901631</v>
+        <v>156.1983392553555</v>
       </c>
       <c r="AC10" t="n">
-        <v>103.8248876058733</v>
+        <v>141.2909889826132</v>
       </c>
       <c r="AD10" t="n">
-        <v>83887.99745136437</v>
+        <v>114159.7009829443</v>
       </c>
       <c r="AE10" t="n">
-        <v>114779.2589901631</v>
+        <v>156198.3392553555</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.68600600325201e-06</v>
+        <v>6.383392049960533e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.685763888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>103824.8876058733</v>
+        <v>141290.9889826132</v>
       </c>
     </row>
     <row r="11">
@@ -7293,28 +7293,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>83.06454328433767</v>
+        <v>113.3362468159177</v>
       </c>
       <c r="AB11" t="n">
-        <v>113.6525726706038</v>
+        <v>155.0716529357962</v>
       </c>
       <c r="AC11" t="n">
-        <v>102.8057306473383</v>
+        <v>140.2718320240781</v>
       </c>
       <c r="AD11" t="n">
-        <v>83064.54328433768</v>
+        <v>113336.2468159177</v>
       </c>
       <c r="AE11" t="n">
-        <v>113652.5726706038</v>
+        <v>155071.6529357962</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.714692002333996e-06</v>
+        <v>6.433070205211386e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.642361111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>102805.7306473383</v>
+        <v>140271.8320240781</v>
       </c>
     </row>
     <row r="12">
@@ -7399,28 +7399,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>82.9812469661378</v>
+        <v>113.2529504977178</v>
       </c>
       <c r="AB12" t="n">
-        <v>113.5386029732686</v>
+        <v>154.957683238461</v>
       </c>
       <c r="AC12" t="n">
-        <v>102.7026380579592</v>
+        <v>140.1687394346991</v>
       </c>
       <c r="AD12" t="n">
-        <v>82981.2469661378</v>
+        <v>113252.9504977178</v>
       </c>
       <c r="AE12" t="n">
-        <v>113538.6029732686</v>
+        <v>154957.683238461</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.711190765072306e-06</v>
+        <v>6.427006794006525e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.651041666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>102702.6380579592</v>
+        <v>140168.7394346991</v>
       </c>
     </row>
   </sheetData>
@@ -7696,28 +7696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.38568619659594</v>
+        <v>101.7317830347417</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.7777775190094</v>
+        <v>139.193913637589</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.06424927862861</v>
+        <v>125.9094418799397</v>
       </c>
       <c r="AD2" t="n">
-        <v>74385.68619659594</v>
+        <v>101731.7830347417</v>
       </c>
       <c r="AE2" t="n">
-        <v>101777.7775190094</v>
+        <v>139193.913637589</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.963641605342136e-06</v>
+        <v>7.500062852232754e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.902777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>92064.2492786286</v>
+        <v>125909.4418799397</v>
       </c>
     </row>
     <row r="3">
@@ -7802,28 +7802,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.41380293143573</v>
+        <v>98.58930756898926</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.7115157253829</v>
+        <v>134.8942400691156</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.38606580355021</v>
+        <v>122.0201231222103</v>
       </c>
       <c r="AD3" t="n">
-        <v>71413.80293143573</v>
+        <v>98589.30756898926</v>
       </c>
       <c r="AE3" t="n">
-        <v>97711.51572538289</v>
+        <v>134894.2400691156</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.268916401161005e-06</v>
+        <v>8.077708457919751e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.477430555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>88386.06580355021</v>
+        <v>122020.1231222103</v>
       </c>
     </row>
     <row r="4">
@@ -7908,28 +7908,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>69.90388450653569</v>
+        <v>97.07938914408922</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.6455787235361</v>
+        <v>132.8283030672688</v>
       </c>
       <c r="AC4" t="n">
-        <v>86.51729892959824</v>
+        <v>120.1513562482583</v>
       </c>
       <c r="AD4" t="n">
-        <v>69903.88450653569</v>
+        <v>97079.38914408922</v>
       </c>
       <c r="AE4" t="n">
-        <v>95645.57872353611</v>
+        <v>132828.3030672688</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.374617462414088e-06</v>
+        <v>8.277717611592312e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.347222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>86517.29892959824</v>
+        <v>120151.3562482583</v>
       </c>
     </row>
     <row r="5">
@@ -8014,28 +8014,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>69.74287283011726</v>
+        <v>96.91837746767078</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.42527544452668</v>
+        <v>132.6079997882594</v>
       </c>
       <c r="AC5" t="n">
-        <v>86.31802108633981</v>
+        <v>119.9520784049999</v>
       </c>
       <c r="AD5" t="n">
-        <v>69742.87283011727</v>
+        <v>96918.37746767078</v>
       </c>
       <c r="AE5" t="n">
-        <v>95425.27544452668</v>
+        <v>132607.9997882594</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.403204978598008e-06</v>
+        <v>8.331811343951878e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.3125</v>
       </c>
       <c r="AH5" t="n">
-        <v>86318.02108633981</v>
+        <v>119952.0784049999</v>
       </c>
     </row>
   </sheetData>
@@ -8311,28 +8311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.61763073422627</v>
+        <v>122.1928639257149</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.0917724888942</v>
+        <v>167.1896671917855</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.8668735005198</v>
+        <v>151.2333200072195</v>
       </c>
       <c r="AD2" t="n">
-        <v>93617.63073422627</v>
+        <v>122192.8639257149</v>
       </c>
       <c r="AE2" t="n">
-        <v>128091.7724888942</v>
+        <v>167189.6671917855</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.435582851207152e-06</v>
+        <v>6.258885832949295e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.510416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>115866.8735005198</v>
+        <v>151233.3200072195</v>
       </c>
     </row>
     <row r="3">
@@ -8417,28 +8417,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.38371304690308</v>
+        <v>106.87360538382</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.2480542360932</v>
+        <v>146.2291818167869</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.01245046341725</v>
+        <v>132.2732739381781</v>
       </c>
       <c r="AD3" t="n">
-        <v>78383.71304690308</v>
+        <v>106873.60538382</v>
       </c>
       <c r="AE3" t="n">
-        <v>107248.0542360932</v>
+        <v>146229.1818167869</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.883602610044158e-06</v>
+        <v>7.075080534957725e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.763888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>97012.45046341725</v>
+        <v>132273.2739381781</v>
       </c>
     </row>
     <row r="4">
@@ -8523,28 +8523,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>76.74478408958531</v>
+        <v>105.2346764265023</v>
       </c>
       <c r="AB4" t="n">
-        <v>105.0055993322496</v>
+        <v>143.9867269129433</v>
       </c>
       <c r="AC4" t="n">
-        <v>94.98401230829052</v>
+        <v>130.2448357830514</v>
       </c>
       <c r="AD4" t="n">
-        <v>76744.78408958532</v>
+        <v>105234.6764265023</v>
       </c>
       <c r="AE4" t="n">
-        <v>105005.5993322496</v>
+        <v>143986.7269129433</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.01622223257545e-06</v>
+        <v>7.316684685572383e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.572916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>94984.01230829052</v>
+        <v>130244.8357830514</v>
       </c>
     </row>
     <row r="5">
@@ -8629,28 +8629,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>75.46498974556124</v>
+        <v>103.784289881886</v>
       </c>
       <c r="AB5" t="n">
-        <v>103.254528250215</v>
+        <v>142.0022440560619</v>
       </c>
       <c r="AC5" t="n">
-        <v>93.40006099268111</v>
+        <v>128.4497491847909</v>
       </c>
       <c r="AD5" t="n">
-        <v>75464.98974556124</v>
+        <v>103784.289881886</v>
       </c>
       <c r="AE5" t="n">
-        <v>103254.5282502151</v>
+        <v>142002.2440560619</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.099273821262686e-06</v>
+        <v>7.467986643450018e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.460069444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>93400.0609926811</v>
+        <v>128449.7491847909</v>
       </c>
     </row>
     <row r="6">
@@ -8735,28 +8735,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>74.74232025969216</v>
+        <v>103.0616203960169</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.2657399777219</v>
+        <v>141.0134557835687</v>
       </c>
       <c r="AC6" t="n">
-        <v>92.50564128514131</v>
+        <v>127.5553294772511</v>
       </c>
       <c r="AD6" t="n">
-        <v>74742.32025969216</v>
+        <v>103061.620396017</v>
       </c>
       <c r="AE6" t="n">
-        <v>102265.7399777219</v>
+        <v>141013.4557835687</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.122936564408211e-06</v>
+        <v>7.511095022510126e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.425347222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>92505.6412851413</v>
+        <v>127555.3294772511</v>
       </c>
     </row>
     <row r="7">
@@ -8841,28 +8841,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>74.27081429457873</v>
+        <v>102.5901144309035</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.6206047148789</v>
+        <v>140.3683205207257</v>
       </c>
       <c r="AC7" t="n">
-        <v>91.92207682633082</v>
+        <v>126.9717650184406</v>
       </c>
       <c r="AD7" t="n">
-        <v>74270.81429457873</v>
+        <v>102590.1144309035</v>
       </c>
       <c r="AE7" t="n">
-        <v>101620.6047148789</v>
+        <v>140368.3205207257</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.152270117457892e-06</v>
+        <v>7.564534385658712e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.390625</v>
       </c>
       <c r="AH7" t="n">
-        <v>91922.07682633083</v>
+        <v>126971.7650184407</v>
       </c>
     </row>
   </sheetData>
@@ -9138,28 +9138,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.05410026596526</v>
+        <v>94.46205016716686</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.11462231886775</v>
+        <v>129.2471444101991</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.22789345197098</v>
+        <v>116.9119783472305</v>
       </c>
       <c r="AD2" t="n">
-        <v>68054.10026596526</v>
+        <v>94462.05016716686</v>
       </c>
       <c r="AE2" t="n">
-        <v>93114.62231886774</v>
+        <v>129247.1444101991</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.367503763554648e-06</v>
+        <v>8.558900164811944e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.564236111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>84227.89345197099</v>
+        <v>116911.9783472305</v>
       </c>
     </row>
     <row r="3">
@@ -9244,28 +9244,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.08346852055305</v>
+        <v>92.32082622116246</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.4183170266593</v>
+        <v>126.3174273431438</v>
       </c>
       <c r="AC3" t="n">
-        <v>81.78891975256181</v>
+        <v>114.2618693651703</v>
       </c>
       <c r="AD3" t="n">
-        <v>66083.46852055305</v>
+        <v>92320.82622116247</v>
       </c>
       <c r="AE3" t="n">
-        <v>90418.31702665929</v>
+        <v>126317.4273431438</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.578303806168134e-06</v>
+        <v>8.972000328462062e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.303819444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>81788.91975256181</v>
+        <v>114261.8693651703</v>
       </c>
     </row>
     <row r="4">
@@ -9350,28 +9350,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>66.01301391431113</v>
+        <v>83.61840335699657</v>
       </c>
       <c r="AB4" t="n">
-        <v>90.32191792616126</v>
+        <v>114.4103884565973</v>
       </c>
       <c r="AC4" t="n">
-        <v>81.70172084691829</v>
+        <v>103.4912215583179</v>
       </c>
       <c r="AD4" t="n">
-        <v>66013.01391431113</v>
+        <v>83618.40335699657</v>
       </c>
       <c r="AE4" t="n">
-        <v>90321.91792616126</v>
+        <v>114410.3884565973</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.610344964908667e-06</v>
+        <v>9.034790675917175e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.269097222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>81701.7208469183</v>
+        <v>103491.2215583179</v>
       </c>
     </row>
   </sheetData>
@@ -9647,28 +9647,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.266214662386</v>
+        <v>163.9690406224498</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.6582730225907</v>
+        <v>224.3496751830705</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.5617641587343</v>
+        <v>202.9380570604095</v>
       </c>
       <c r="AD2" t="n">
-        <v>123266.214662386</v>
+        <v>163969.0406224498</v>
       </c>
       <c r="AE2" t="n">
-        <v>168658.2730225907</v>
+        <v>224349.6751830705</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.735076681724755e-06</v>
+        <v>4.705648031402649e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.595486111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>152561.7641587343</v>
+        <v>202938.0570604095</v>
       </c>
     </row>
     <row r="3">
@@ -9753,28 +9753,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.5080597359492</v>
+        <v>133.9499278599764</v>
       </c>
       <c r="AB3" t="n">
-        <v>141.6242937839773</v>
+        <v>183.2762007516879</v>
       </c>
       <c r="AC3" t="n">
-        <v>128.1078699562174</v>
+        <v>165.7845773817616</v>
       </c>
       <c r="AD3" t="n">
-        <v>103508.0597359492</v>
+        <v>133949.9278599765</v>
       </c>
       <c r="AE3" t="n">
-        <v>141624.2937839773</v>
+        <v>183276.2007516879</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.206871845700059e-06</v>
+        <v>5.517362744712136e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.475694444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>128107.8699562174</v>
+        <v>165784.5773817616</v>
       </c>
     </row>
     <row r="4">
@@ -9859,28 +9859,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>100.7377516534168</v>
+        <v>131.1796197774441</v>
       </c>
       <c r="AB4" t="n">
-        <v>137.8338360480915</v>
+        <v>179.4857430158021</v>
       </c>
       <c r="AC4" t="n">
-        <v>124.6791681867025</v>
+        <v>162.3558756122467</v>
       </c>
       <c r="AD4" t="n">
-        <v>100737.7516534168</v>
+        <v>131179.6197774441</v>
       </c>
       <c r="AE4" t="n">
-        <v>137833.8360480915</v>
+        <v>179485.7430158021</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.376580270477541e-06</v>
+        <v>5.809342900260467e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.154513888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>124679.1681867025</v>
+        <v>162355.8756122467</v>
       </c>
     </row>
     <row r="5">
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>88.79777455379161</v>
+        <v>129.3299188047122</v>
       </c>
       <c r="AB5" t="n">
-        <v>121.4970326257793</v>
+        <v>176.9549005418639</v>
       </c>
       <c r="AC5" t="n">
-        <v>109.901526354163</v>
+        <v>160.0665731919606</v>
       </c>
       <c r="AD5" t="n">
-        <v>88797.77455379161</v>
+        <v>129329.9188047122</v>
       </c>
       <c r="AE5" t="n">
-        <v>121497.0326257793</v>
+        <v>176954.9005418639</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.484191492449388e-06</v>
+        <v>5.994485985356469e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.963541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>109901.526354163</v>
+        <v>160066.5731919606</v>
       </c>
     </row>
     <row r="6">
@@ -10071,28 +10071,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>87.56391255450475</v>
+        <v>118.0910320245526</v>
       </c>
       <c r="AB6" t="n">
-        <v>119.8088082042062</v>
+        <v>161.5773598245661</v>
       </c>
       <c r="AC6" t="n">
-        <v>108.3744237019465</v>
+        <v>146.1566433782029</v>
       </c>
       <c r="AD6" t="n">
-        <v>87563.91255450476</v>
+        <v>118091.0320245526</v>
       </c>
       <c r="AE6" t="n">
-        <v>119808.8082042062</v>
+        <v>161577.3598245661</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.551266043302644e-06</v>
+        <v>6.109886489586866e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.850694444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>108374.4237019465</v>
+        <v>146156.6433782029</v>
       </c>
     </row>
     <row r="7">
@@ -10177,28 +10177,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>87.18580422996089</v>
+        <v>117.7129237000087</v>
       </c>
       <c r="AB7" t="n">
-        <v>119.2914637136036</v>
+        <v>161.0600153339634</v>
       </c>
       <c r="AC7" t="n">
-        <v>107.9064538434292</v>
+        <v>145.6886735196856</v>
       </c>
       <c r="AD7" t="n">
-        <v>87185.80422996089</v>
+        <v>117712.9237000087</v>
       </c>
       <c r="AE7" t="n">
-        <v>119291.4637136036</v>
+        <v>161060.0153339634</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.566245946561344e-06</v>
+        <v>6.135659131630471e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.824652777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>107906.4538434292</v>
+        <v>145688.6735196856</v>
       </c>
     </row>
     <row r="8">
@@ -10283,28 +10283,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>86.53570381827184</v>
+        <v>117.0628232883197</v>
       </c>
       <c r="AB8" t="n">
-        <v>118.4019676499251</v>
+        <v>160.170519270285</v>
       </c>
       <c r="AC8" t="n">
-        <v>107.1018500356523</v>
+        <v>144.8840697119088</v>
       </c>
       <c r="AD8" t="n">
-        <v>86535.70381827184</v>
+        <v>117062.8232883197</v>
       </c>
       <c r="AE8" t="n">
-        <v>118401.9676499251</v>
+        <v>160170.5192702849</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.593764938170778e-06</v>
+        <v>6.183005039538055e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.78125</v>
       </c>
       <c r="AH8" t="n">
-        <v>107101.8500356523</v>
+        <v>144884.0697119088</v>
       </c>
     </row>
     <row r="9">
@@ -10389,28 +10389,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>85.72255364640176</v>
+        <v>116.2496731164496</v>
       </c>
       <c r="AB9" t="n">
-        <v>117.2893797111192</v>
+        <v>159.0579313314791</v>
       </c>
       <c r="AC9" t="n">
-        <v>106.0954459281988</v>
+        <v>143.8776656044552</v>
       </c>
       <c r="AD9" t="n">
-        <v>85722.55364640176</v>
+        <v>116249.6731164496</v>
       </c>
       <c r="AE9" t="n">
-        <v>117289.3797111192</v>
+        <v>159057.9313314791</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.624777645236714e-06</v>
+        <v>6.236361819232166e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.729166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>106095.4459281988</v>
+        <v>143877.6656044552</v>
       </c>
     </row>
     <row r="10">
@@ -10495,28 +10495,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>85.60627942533209</v>
+        <v>116.1333988953799</v>
       </c>
       <c r="AB10" t="n">
-        <v>117.1302881921952</v>
+        <v>158.8988398125551</v>
       </c>
       <c r="AC10" t="n">
-        <v>105.9515378805544</v>
+        <v>143.7337575568109</v>
       </c>
       <c r="AD10" t="n">
-        <v>85606.27942533209</v>
+        <v>116133.3988953799</v>
       </c>
       <c r="AE10" t="n">
-        <v>117130.2881921952</v>
+        <v>158898.8398125551</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.626141630038225e-06</v>
+        <v>6.238708529450194e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.729166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>105951.5378805544</v>
+        <v>143733.7575568109</v>
       </c>
     </row>
     <row r="11">
@@ -10601,28 +10601,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>84.71066674443155</v>
+        <v>115.2377862144794</v>
       </c>
       <c r="AB11" t="n">
-        <v>115.9048714105448</v>
+        <v>157.6734230309047</v>
       </c>
       <c r="AC11" t="n">
-        <v>104.8430731566611</v>
+        <v>142.6252928329175</v>
       </c>
       <c r="AD11" t="n">
-        <v>84710.66674443155</v>
+        <v>115237.7862144794</v>
       </c>
       <c r="AE11" t="n">
-        <v>115904.8714105448</v>
+        <v>157673.4230309047</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.651985552593171e-06</v>
+        <v>6.283172512528619e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.685763888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>104843.0731566612</v>
+        <v>142625.2928329175</v>
       </c>
     </row>
     <row r="12">
@@ -10707,28 +10707,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>84.34143321418286</v>
+        <v>114.8685526842307</v>
       </c>
       <c r="AB12" t="n">
-        <v>115.3996698050251</v>
+        <v>157.168221425385</v>
       </c>
       <c r="AC12" t="n">
-        <v>104.3860872833172</v>
+        <v>142.1683069595736</v>
       </c>
       <c r="AD12" t="n">
-        <v>84341.43321418286</v>
+        <v>114868.5526842307</v>
       </c>
       <c r="AE12" t="n">
-        <v>115399.6698050251</v>
+        <v>157168.221425385</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.658015801189326e-06</v>
+        <v>6.293547441913586e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.677083333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>104386.0872833172</v>
+        <v>142168.3069595736</v>
       </c>
     </row>
     <row r="13">
@@ -10813,28 +10813,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>84.20862523191785</v>
+        <v>114.7357447019657</v>
       </c>
       <c r="AB13" t="n">
-        <v>115.2179560646155</v>
+        <v>156.9865076849754</v>
       </c>
       <c r="AC13" t="n">
-        <v>104.2217160472554</v>
+        <v>142.0039357235118</v>
       </c>
       <c r="AD13" t="n">
-        <v>84208.62523191785</v>
+        <v>114735.7447019657</v>
       </c>
       <c r="AE13" t="n">
-        <v>115217.9560646155</v>
+        <v>156986.5076849754</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.65043013132829e-06</v>
+        <v>6.280496439472974e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.694444444444445</v>
       </c>
       <c r="AH13" t="n">
-        <v>104221.7160472554</v>
+        <v>142003.9357235118</v>
       </c>
     </row>
   </sheetData>
@@ -11110,28 +11110,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.00601409862243</v>
+        <v>90.68784834679371</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.94409635264023</v>
+        <v>124.0831149735343</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.45539663058894</v>
+        <v>112.2407966322384</v>
       </c>
       <c r="AD2" t="n">
-        <v>65006.01409862243</v>
+        <v>90687.84834679372</v>
       </c>
       <c r="AE2" t="n">
-        <v>88944.09635264023</v>
+        <v>124083.1149735343</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.546287421274285e-06</v>
+        <v>9.113762254091424e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.46875</v>
       </c>
       <c r="AH2" t="n">
-        <v>80455.39663058893</v>
+        <v>112240.7966322384</v>
       </c>
     </row>
     <row r="3">
@@ -11216,28 +11216,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.79814265855213</v>
+        <v>81.0331831329455</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.29143336080978</v>
+        <v>110.8731760941854</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.96046147517117</v>
+        <v>100.2915957792648</v>
       </c>
       <c r="AD3" t="n">
-        <v>63798.14265855213</v>
+        <v>81033.1831329455</v>
       </c>
       <c r="AE3" t="n">
-        <v>87291.43336080978</v>
+        <v>110873.1760941854</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.712329679077689e-06</v>
+        <v>9.446620589152128e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.277777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>78960.46147517118</v>
+        <v>100291.5957792648</v>
       </c>
     </row>
   </sheetData>
@@ -11513,28 +11513,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.99743473100115</v>
+        <v>139.1691008536888</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.8209017743653</v>
+        <v>190.4173034953435</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.7629069383982</v>
+        <v>172.2441433021657</v>
       </c>
       <c r="AD2" t="n">
-        <v>99997.43473100115</v>
+        <v>139169.1008536888</v>
       </c>
       <c r="AE2" t="n">
-        <v>136820.9017743653</v>
+        <v>190417.3034953435</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.186343166165016e-06</v>
+        <v>5.643250514560847e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.779513888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>123762.9069383982</v>
+        <v>172244.1433021657</v>
       </c>
     </row>
     <row r="3">
@@ -11619,28 +11619,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.12911989088038</v>
+        <v>124.4866237778043</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.1598586352227</v>
+        <v>170.3280906149554</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.7375844076206</v>
+        <v>154.072216703688</v>
       </c>
       <c r="AD3" t="n">
-        <v>95129.11989088038</v>
+        <v>124486.6237778043</v>
       </c>
       <c r="AE3" t="n">
-        <v>130159.8586352227</v>
+        <v>170328.0906149554</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.541108296122098e-06</v>
+        <v>6.271565921211829e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.102430555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>117737.5844076206</v>
+        <v>154072.216703688</v>
       </c>
     </row>
     <row r="4">
@@ -11725,28 +11725,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.97215366736943</v>
+        <v>112.4149089003139</v>
       </c>
       <c r="AB4" t="n">
-        <v>113.5261611207257</v>
+        <v>153.8110377531076</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.6913836383607</v>
+        <v>139.1315281851404</v>
       </c>
       <c r="AD4" t="n">
-        <v>82972.15366736942</v>
+        <v>112414.9089003139</v>
       </c>
       <c r="AE4" t="n">
-        <v>113526.1611207257</v>
+        <v>153811.0377531076</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.70182237322748e-06</v>
+        <v>6.556202493930296e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>102691.3836383607</v>
+        <v>139131.5281851404</v>
       </c>
     </row>
     <row r="5">
@@ -11831,28 +11831,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>81.7089559358986</v>
+        <v>111.1517111688431</v>
       </c>
       <c r="AB5" t="n">
-        <v>111.7977982561774</v>
+        <v>152.0826748885593</v>
       </c>
       <c r="AC5" t="n">
-        <v>101.1279732998319</v>
+        <v>137.5681178466115</v>
       </c>
       <c r="AD5" t="n">
-        <v>81708.9559358986</v>
+        <v>111151.711168843</v>
       </c>
       <c r="AE5" t="n">
-        <v>111797.7982561774</v>
+        <v>152082.6748885593</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.784418462389997e-06</v>
+        <v>6.702486305296442e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.703125</v>
       </c>
       <c r="AH5" t="n">
-        <v>101127.9732998319</v>
+        <v>137568.1178466115</v>
       </c>
     </row>
     <row r="6">
@@ -11937,28 +11937,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>80.76232164114833</v>
+        <v>110.2050768740928</v>
       </c>
       <c r="AB6" t="n">
-        <v>110.502571451543</v>
+        <v>150.7874480839249</v>
       </c>
       <c r="AC6" t="n">
-        <v>99.9563611235692</v>
+        <v>136.3965056703489</v>
       </c>
       <c r="AD6" t="n">
-        <v>80762.32164114833</v>
+        <v>110205.0768740928</v>
       </c>
       <c r="AE6" t="n">
-        <v>110502.571451543</v>
+        <v>150787.4480839249</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.84007130921426e-06</v>
+        <v>6.801051632412729e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.625</v>
       </c>
       <c r="AH6" t="n">
-        <v>99956.36112356919</v>
+        <v>136396.5056703489</v>
       </c>
     </row>
     <row r="7">
@@ -12043,28 +12043,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>80.0548800325826</v>
+        <v>109.4976352655271</v>
       </c>
       <c r="AB7" t="n">
-        <v>109.5346186325828</v>
+        <v>149.8194952649648</v>
       </c>
       <c r="AC7" t="n">
-        <v>99.08078836311991</v>
+        <v>135.5209329098996</v>
       </c>
       <c r="AD7" t="n">
-        <v>80054.8800325826</v>
+        <v>109497.635265527</v>
       </c>
       <c r="AE7" t="n">
-        <v>109534.6186325828</v>
+        <v>149819.4952649648</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.867760901755791e-06</v>
+        <v>6.850091958331561e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.581597222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>99080.78836311991</v>
+        <v>135520.9329098996</v>
       </c>
     </row>
     <row r="8">
@@ -12149,28 +12149,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>79.29096334457897</v>
+        <v>108.7337185775234</v>
       </c>
       <c r="AB8" t="n">
-        <v>108.4893941184311</v>
+        <v>148.7742707508129</v>
       </c>
       <c r="AC8" t="n">
-        <v>98.13531860961663</v>
+        <v>134.5754631563963</v>
       </c>
       <c r="AD8" t="n">
-        <v>79290.96334457897</v>
+        <v>108733.7185775234</v>
       </c>
       <c r="AE8" t="n">
-        <v>108489.3941184311</v>
+        <v>148774.270750813</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.899082731953264e-06</v>
+        <v>6.905565247039386e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.538194444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>98135.31860961663</v>
+        <v>134575.4631563963</v>
       </c>
     </row>
     <row r="9">
@@ -12255,28 +12255,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>78.89270752350326</v>
+        <v>108.3354627564477</v>
       </c>
       <c r="AB9" t="n">
-        <v>107.9444829342288</v>
+        <v>148.2293595666107</v>
       </c>
       <c r="AC9" t="n">
-        <v>97.64241298404677</v>
+        <v>134.0825575308264</v>
       </c>
       <c r="AD9" t="n">
-        <v>78892.70752350327</v>
+        <v>108335.4627564477</v>
       </c>
       <c r="AE9" t="n">
-        <v>107944.4829342288</v>
+        <v>148229.3595666107</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.899605177095558e-06</v>
+        <v>6.906490536207666e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.538194444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>97642.41298404676</v>
+        <v>134082.5575308264</v>
       </c>
     </row>
     <row r="10">
@@ -12361,28 +12361,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>78.79713731812936</v>
+        <v>108.2398925510738</v>
       </c>
       <c r="AB10" t="n">
-        <v>107.8137195629763</v>
+        <v>148.0985961953583</v>
       </c>
       <c r="AC10" t="n">
-        <v>97.52412948541911</v>
+        <v>133.9642740321988</v>
       </c>
       <c r="AD10" t="n">
-        <v>78797.13731812936</v>
+        <v>108239.8925510738</v>
       </c>
       <c r="AE10" t="n">
-        <v>107813.7195629763</v>
+        <v>148098.5961953583</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.897888571628024e-06</v>
+        <v>6.903450300369033e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.538194444444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>97524.12948541911</v>
+        <v>133964.2740321988</v>
       </c>
     </row>
   </sheetData>
@@ -12658,28 +12658,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.3217895380287</v>
+        <v>146.3284541280563</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.1566042010356</v>
+        <v>200.2130464937033</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.9669212738295</v>
+        <v>181.1049943371767</v>
       </c>
       <c r="AD2" t="n">
-        <v>116321.7895380287</v>
+        <v>146328.4541280563</v>
       </c>
       <c r="AE2" t="n">
-        <v>159156.6042010356</v>
+        <v>200213.0464937033</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.951862664456988e-06</v>
+        <v>5.147790732513753e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.170138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>143966.9212738295</v>
+        <v>181104.9943371767</v>
       </c>
     </row>
     <row r="3">
@@ -12764,28 +12764,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.43659264914723</v>
+        <v>128.3579163846032</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.685288778481</v>
+        <v>175.6249639489511</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.8311138494888</v>
+        <v>158.8635638808972</v>
       </c>
       <c r="AD3" t="n">
-        <v>98436.59264914723</v>
+        <v>128357.9163846032</v>
       </c>
       <c r="AE3" t="n">
-        <v>134685.288778481</v>
+        <v>175624.9639489511</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.413321252549569e-06</v>
+        <v>5.952534215950456e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.197916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>121831.1138494888</v>
+        <v>158863.5638808972</v>
       </c>
     </row>
     <row r="4">
@@ -12870,28 +12870,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>86.64589768748279</v>
+        <v>126.4839827536416</v>
       </c>
       <c r="AB4" t="n">
-        <v>118.5527397631898</v>
+        <v>173.0609652829537</v>
       </c>
       <c r="AC4" t="n">
-        <v>107.2382326700371</v>
+        <v>156.544269648987</v>
       </c>
       <c r="AD4" t="n">
-        <v>86645.89768748279</v>
+        <v>126483.9827536416</v>
       </c>
       <c r="AE4" t="n">
-        <v>118552.7397631898</v>
+        <v>173060.9652829537</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.536297248372666e-06</v>
+        <v>6.166993614499828e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.980902777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>107238.2326700371</v>
+        <v>156544.269648987</v>
       </c>
     </row>
     <row r="5">
@@ -12976,28 +12976,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>85.56234155972255</v>
+        <v>115.5689166411991</v>
       </c>
       <c r="AB5" t="n">
-        <v>117.0701704660664</v>
+        <v>158.1264902891857</v>
       </c>
       <c r="AC5" t="n">
-        <v>105.8971577058316</v>
+        <v>143.0351199879523</v>
       </c>
       <c r="AD5" t="n">
-        <v>85562.34155972255</v>
+        <v>115568.9166411991</v>
       </c>
       <c r="AE5" t="n">
-        <v>117070.1704660664</v>
+        <v>158126.4902891857</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.607230875299369e-06</v>
+        <v>6.290695665992132e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.868055555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>105897.1577058316</v>
+        <v>143035.1199879523</v>
       </c>
     </row>
     <row r="6">
@@ -13082,28 +13082,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>84.5160677447557</v>
+        <v>114.5226428262322</v>
       </c>
       <c r="AB6" t="n">
-        <v>115.6386124740864</v>
+        <v>156.6949322972058</v>
       </c>
       <c r="AC6" t="n">
-        <v>104.6022255994015</v>
+        <v>141.7401878815222</v>
       </c>
       <c r="AD6" t="n">
-        <v>84516.0677447557</v>
+        <v>114522.6428262322</v>
       </c>
       <c r="AE6" t="n">
-        <v>115638.6124740864</v>
+        <v>156694.9322972058</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.665684084017661e-06</v>
+        <v>6.392632957909156e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.772569444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>104602.2255994015</v>
+        <v>141740.1878815222</v>
       </c>
     </row>
     <row r="7">
@@ -13188,28 +13188,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>83.7914151461913</v>
+        <v>113.7979902276678</v>
       </c>
       <c r="AB7" t="n">
-        <v>114.6471108193148</v>
+        <v>155.7034306424341</v>
       </c>
       <c r="AC7" t="n">
-        <v>103.7053514709796</v>
+        <v>140.8433137531003</v>
       </c>
       <c r="AD7" t="n">
-        <v>83791.4151461913</v>
+        <v>113797.9902276678</v>
       </c>
       <c r="AE7" t="n">
-        <v>114647.1108193148</v>
+        <v>155703.4306424341</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.692058717809652e-06</v>
+        <v>6.438628016230351e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.729166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>103705.3514709796</v>
+        <v>140843.3137531003</v>
       </c>
     </row>
     <row r="8">
@@ -13294,28 +13294,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>83.14779860176732</v>
+        <v>113.1543736832438</v>
       </c>
       <c r="AB8" t="n">
-        <v>113.7664862688764</v>
+        <v>154.8228060919957</v>
       </c>
       <c r="AC8" t="n">
-        <v>102.9087724916705</v>
+        <v>140.0467347737911</v>
       </c>
       <c r="AD8" t="n">
-        <v>83147.79860176732</v>
+        <v>113154.3736832438</v>
       </c>
       <c r="AE8" t="n">
-        <v>113766.4862688764</v>
+        <v>154822.8060919957</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.723552273132436e-06</v>
+        <v>6.493550026721092e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.685763888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>102908.7724916705</v>
+        <v>140046.7347737911</v>
       </c>
     </row>
     <row r="9">
@@ -13400,28 +13400,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>82.58267473375878</v>
+        <v>112.5892498152353</v>
       </c>
       <c r="AB9" t="n">
-        <v>112.993258861162</v>
+        <v>154.0495786842813</v>
       </c>
       <c r="AC9" t="n">
-        <v>102.2093408225166</v>
+        <v>139.3473031046373</v>
       </c>
       <c r="AD9" t="n">
-        <v>82582.67473375877</v>
+        <v>112589.2498152353</v>
       </c>
       <c r="AE9" t="n">
-        <v>112993.258861162</v>
+        <v>154049.5786842813</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.752364488605757e-06</v>
+        <v>6.543796014646833e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.642361111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>102209.3408225166</v>
+        <v>139347.3031046372</v>
       </c>
     </row>
     <row r="10">
@@ -13506,28 +13506,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>81.96902591412494</v>
+        <v>111.9756009956015</v>
       </c>
       <c r="AB10" t="n">
-        <v>112.1536374738642</v>
+        <v>153.2099572969834</v>
       </c>
       <c r="AC10" t="n">
-        <v>101.4498517220062</v>
+        <v>138.5878140041268</v>
       </c>
       <c r="AD10" t="n">
-        <v>81969.02591412494</v>
+        <v>111975.6009956015</v>
       </c>
       <c r="AE10" t="n">
-        <v>112153.6374738642</v>
+        <v>153209.9572969835</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.74707493635727e-06</v>
+        <v>6.534571497404966e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.651041666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>101449.8517220062</v>
+        <v>138587.8140041268</v>
       </c>
     </row>
     <row r="11">
@@ -13612,28 +13612,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>81.50718224785788</v>
+        <v>111.5137573293344</v>
       </c>
       <c r="AB11" t="n">
-        <v>111.5217225945733</v>
+        <v>152.5780424176926</v>
       </c>
       <c r="AC11" t="n">
-        <v>100.8782459118966</v>
+        <v>138.0162081940172</v>
       </c>
       <c r="AD11" t="n">
-        <v>81507.18224785788</v>
+        <v>111513.7573293344</v>
       </c>
       <c r="AE11" t="n">
-        <v>111521.7225945733</v>
+        <v>152578.0424176926</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.781810475316222e-06</v>
+        <v>6.595147244269754e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.598958333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>100878.2459118966</v>
+        <v>138016.2081940172</v>
       </c>
     </row>
   </sheetData>
@@ -13909,28 +13909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.7380151219367</v>
+        <v>182.002465071313</v>
       </c>
       <c r="AB2" t="n">
-        <v>192.5639612127718</v>
+        <v>249.0238020925304</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.1859270198962</v>
+        <v>225.2573199279929</v>
       </c>
       <c r="AD2" t="n">
-        <v>140738.0151219367</v>
+        <v>182002.465071313</v>
       </c>
       <c r="AE2" t="n">
-        <v>192563.9612127718</v>
+        <v>249023.8020925304</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.546493455171658e-06</v>
+        <v>4.328870101427064e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>174185.9270198962</v>
+        <v>225257.3199279929</v>
       </c>
     </row>
     <row r="3">
@@ -14015,28 +14015,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.7203010072121</v>
+        <v>148.9846614480374</v>
       </c>
       <c r="AB3" t="n">
-        <v>147.387668122286</v>
+        <v>203.8473865324961</v>
       </c>
       <c r="AC3" t="n">
-        <v>133.3211959366264</v>
+        <v>184.3924780634966</v>
       </c>
       <c r="AD3" t="n">
-        <v>107720.3010072121</v>
+        <v>148984.6614480374</v>
       </c>
       <c r="AE3" t="n">
-        <v>147387.6681222859</v>
+        <v>203847.3865324961</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.061664760279562e-06</v>
+        <v>5.204627176421953e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>133321.1959366264</v>
+        <v>184392.4780634966</v>
       </c>
     </row>
     <row r="4">
@@ -14121,28 +14121,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>104.7839162670813</v>
+        <v>135.7109408926084</v>
       </c>
       <c r="AB4" t="n">
-        <v>143.3699769766891</v>
+        <v>185.6856964733457</v>
       </c>
       <c r="AC4" t="n">
-        <v>129.6869475950991</v>
+        <v>167.9641142134936</v>
       </c>
       <c r="AD4" t="n">
-        <v>104783.9162670813</v>
+        <v>135710.9408926084</v>
       </c>
       <c r="AE4" t="n">
-        <v>143369.9769766891</v>
+        <v>185685.6964733457</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.224243939960582e-06</v>
+        <v>5.481001006720397e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.336805555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>129686.9475950991</v>
+        <v>167964.1142134936</v>
       </c>
     </row>
     <row r="5">
@@ -14227,28 +14227,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>102.9307152925934</v>
+        <v>133.8577399181205</v>
       </c>
       <c r="AB5" t="n">
-        <v>140.8343456459392</v>
+        <v>183.1500651425957</v>
       </c>
       <c r="AC5" t="n">
-        <v>127.3933133597742</v>
+        <v>165.6704799781687</v>
       </c>
       <c r="AD5" t="n">
-        <v>102930.7152925934</v>
+        <v>133857.7399181205</v>
       </c>
       <c r="AE5" t="n">
-        <v>140834.3456459391</v>
+        <v>183150.0651425957</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.33141444118302e-06</v>
+        <v>5.66318375592581e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.128472222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>127393.3133597742</v>
+        <v>165670.4799781687</v>
       </c>
     </row>
     <row r="6">
@@ -14333,28 +14333,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>101.9847171857099</v>
+        <v>132.911741811237</v>
       </c>
       <c r="AB6" t="n">
-        <v>139.5399893016107</v>
+        <v>181.8557087982673</v>
       </c>
       <c r="AC6" t="n">
-        <v>126.2224885683075</v>
+        <v>164.499655186702</v>
       </c>
       <c r="AD6" t="n">
-        <v>101984.7171857099</v>
+        <v>132911.741811237</v>
       </c>
       <c r="AE6" t="n">
-        <v>139539.9893016107</v>
+        <v>181855.7087982673</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.384117387997128e-06</v>
+        <v>5.752775272549329e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.032986111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>126222.4885683075</v>
+        <v>164499.655186702</v>
       </c>
     </row>
     <row r="7">
@@ -14439,28 +14439,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>90.84018261342193</v>
+        <v>132.0192021996756</v>
       </c>
       <c r="AB7" t="n">
-        <v>124.2915454376484</v>
+        <v>180.634496725661</v>
       </c>
       <c r="AC7" t="n">
-        <v>112.4293347853916</v>
+        <v>163.3949938803229</v>
       </c>
       <c r="AD7" t="n">
-        <v>90840.18261342193</v>
+        <v>132019.2021996756</v>
       </c>
       <c r="AE7" t="n">
-        <v>124291.5454376484</v>
+        <v>180634.496725661</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.412751087226043e-06</v>
+        <v>5.801450663500588e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.980902777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>112429.3347853916</v>
+        <v>163394.9938803229</v>
       </c>
     </row>
     <row r="8">
@@ -14545,28 +14545,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>90.19353903343783</v>
+        <v>121.2058150049855</v>
       </c>
       <c r="AB8" t="n">
-        <v>123.4067791636133</v>
+        <v>165.8391433129191</v>
       </c>
       <c r="AC8" t="n">
-        <v>111.6290093627728</v>
+        <v>150.0116882318795</v>
       </c>
       <c r="AD8" t="n">
-        <v>90193.53903343783</v>
+        <v>121205.8150049855</v>
       </c>
       <c r="AE8" t="n">
-        <v>123406.7791636133</v>
+        <v>165839.1433129191</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.440890696328575e-06</v>
+        <v>5.849286133983501e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.9375</v>
       </c>
       <c r="AH8" t="n">
-        <v>111629.0093627728</v>
+        <v>150011.6882318795</v>
       </c>
     </row>
     <row r="9">
@@ -14651,28 +14651,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>89.58449690332168</v>
+        <v>120.5967728748693</v>
       </c>
       <c r="AB9" t="n">
-        <v>122.5734608521463</v>
+        <v>165.0058250014521</v>
       </c>
       <c r="AC9" t="n">
-        <v>110.8752217813824</v>
+        <v>149.2579006504891</v>
       </c>
       <c r="AD9" t="n">
-        <v>89584.49690332168</v>
+        <v>120596.7728748693</v>
       </c>
       <c r="AE9" t="n">
-        <v>122573.4608521463</v>
+        <v>165005.8250014521</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.471359587455481e-06</v>
+        <v>5.901081229531473e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.885416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>110875.2217813824</v>
+        <v>149257.9006504891</v>
       </c>
     </row>
     <row r="10">
@@ -14757,28 +14757,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>88.69294760666547</v>
+        <v>119.7052235782131</v>
       </c>
       <c r="AB10" t="n">
-        <v>121.3536037720829</v>
+        <v>163.7859679213887</v>
       </c>
       <c r="AC10" t="n">
-        <v>109.7717861489596</v>
+        <v>148.1544650180664</v>
       </c>
       <c r="AD10" t="n">
-        <v>88692.94760666548</v>
+        <v>119705.2235782131</v>
       </c>
       <c r="AE10" t="n">
-        <v>121353.6037720829</v>
+        <v>163785.9679213887</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.511357359591187e-06</v>
+        <v>5.969074791254679e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.815972222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>109771.7861489597</v>
+        <v>148154.4650180664</v>
       </c>
     </row>
     <row r="11">
@@ -14863,28 +14863,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>88.64247275998244</v>
+        <v>119.6547487315301</v>
       </c>
       <c r="AB11" t="n">
-        <v>121.2845418600581</v>
+        <v>163.716906009364</v>
       </c>
       <c r="AC11" t="n">
-        <v>109.7093154088895</v>
+        <v>148.0919942779962</v>
       </c>
       <c r="AD11" t="n">
-        <v>88642.47275998244</v>
+        <v>119654.7487315301</v>
       </c>
       <c r="AE11" t="n">
-        <v>121284.5418600581</v>
+        <v>163716.906009364</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.503946007695454e-06</v>
+        <v>5.956475984229497e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.824652777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>109709.3154088895</v>
+        <v>148091.9942779962</v>
       </c>
     </row>
     <row r="12">
@@ -14969,28 +14969,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>87.79945910850785</v>
+        <v>118.8117350800555</v>
       </c>
       <c r="AB12" t="n">
-        <v>120.1310933909737</v>
+        <v>162.5634575402795</v>
       </c>
       <c r="AC12" t="n">
-        <v>108.665950442819</v>
+        <v>147.0486293119257</v>
       </c>
       <c r="AD12" t="n">
-        <v>87799.45910850784</v>
+        <v>118811.7350800555</v>
       </c>
       <c r="AE12" t="n">
-        <v>120131.0933909737</v>
+        <v>162563.4575402795</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.53187386388668e-06</v>
+        <v>6.003951488797406e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.78125</v>
       </c>
       <c r="AH12" t="n">
-        <v>108665.950442819</v>
+        <v>147048.6293119257</v>
       </c>
     </row>
     <row r="13">
@@ -15075,28 +15075,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>87.50711948959415</v>
+        <v>118.5193954611418</v>
       </c>
       <c r="AB13" t="n">
-        <v>119.7311014272624</v>
+        <v>162.1634655765682</v>
       </c>
       <c r="AC13" t="n">
-        <v>108.304133150732</v>
+        <v>146.6868120198387</v>
       </c>
       <c r="AD13" t="n">
-        <v>87507.11948959414</v>
+        <v>118519.3954611418</v>
       </c>
       <c r="AE13" t="n">
-        <v>119731.1014272624</v>
+        <v>162163.4655765682</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.53657948413794e-06</v>
+        <v>6.011950731353077e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.772569444444445</v>
       </c>
       <c r="AH13" t="n">
-        <v>108304.133150732</v>
+        <v>146686.8120198387</v>
       </c>
     </row>
     <row r="14">
@@ -15181,28 +15181,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>87.31996736741372</v>
+        <v>118.3322433389614</v>
       </c>
       <c r="AB14" t="n">
-        <v>119.4750316371263</v>
+        <v>161.9073957864322</v>
       </c>
       <c r="AC14" t="n">
-        <v>108.0725023019702</v>
+        <v>146.455181171077</v>
       </c>
       <c r="AD14" t="n">
-        <v>87319.96736741373</v>
+        <v>118332.2433389614</v>
       </c>
       <c r="AE14" t="n">
-        <v>119475.0316371263</v>
+        <v>161907.3957864322</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.529215188444718e-06</v>
+        <v>5.999431916753451e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.789930555555555</v>
       </c>
       <c r="AH14" t="n">
-        <v>108072.5023019702</v>
+        <v>146455.181171077</v>
       </c>
     </row>
     <row r="15">
@@ -15287,28 +15287,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>86.72044301700083</v>
+        <v>117.7327189885485</v>
       </c>
       <c r="AB15" t="n">
-        <v>118.6547359717442</v>
+        <v>161.08710012105</v>
       </c>
       <c r="AC15" t="n">
-        <v>107.3304945035997</v>
+        <v>145.7131733727064</v>
       </c>
       <c r="AD15" t="n">
-        <v>86720.44301700083</v>
+        <v>117732.7189885485</v>
       </c>
       <c r="AE15" t="n">
-        <v>118654.7359717442</v>
+        <v>161087.10012105</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.529356357052256e-06</v>
+        <v>5.999671894030122e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.789930555555555</v>
       </c>
       <c r="AH15" t="n">
-        <v>107330.4945035997</v>
+        <v>145713.1733727064</v>
       </c>
     </row>
     <row r="16">
@@ -15393,28 +15393,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>86.58033969495327</v>
+        <v>117.5926156665009</v>
       </c>
       <c r="AB16" t="n">
-        <v>118.4630404255964</v>
+        <v>160.8954045749023</v>
       </c>
       <c r="AC16" t="n">
-        <v>107.1570941113298</v>
+        <v>145.5397729804366</v>
       </c>
       <c r="AD16" t="n">
-        <v>86580.33969495326</v>
+        <v>117592.6156665009</v>
       </c>
       <c r="AE16" t="n">
-        <v>118463.0404255965</v>
+        <v>160895.4045749023</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.532603235025625e-06</v>
+        <v>6.005191371393535e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.78125</v>
       </c>
       <c r="AH16" t="n">
-        <v>107157.0941113298</v>
+        <v>145539.7729804366</v>
       </c>
     </row>
   </sheetData>
@@ -15690,28 +15690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.68639294801396</v>
+        <v>135.0336375380578</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.2905883340304</v>
+        <v>184.7589801431348</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.6649602544726</v>
+        <v>167.1258423891832</v>
       </c>
       <c r="AD2" t="n">
-        <v>96686.39294801396</v>
+        <v>135033.6375380578</v>
       </c>
       <c r="AE2" t="n">
-        <v>132290.5883340304</v>
+        <v>184758.9801431348</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.304133172373822e-06</v>
+        <v>5.958133999673816e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.684027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>119664.9602544726</v>
+        <v>167125.8423891832</v>
       </c>
     </row>
     <row r="3">
@@ -15796,28 +15796,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.69817153705432</v>
+        <v>109.5226106205159</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.4147984490188</v>
+        <v>149.8536676474954</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.87696505321566</v>
+        <v>135.5518439282027</v>
       </c>
       <c r="AD3" t="n">
-        <v>80698.17153705432</v>
+        <v>109522.6106205159</v>
       </c>
       <c r="AE3" t="n">
-        <v>110414.7984490188</v>
+        <v>149853.6676474954</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.763650741732376e-06</v>
+        <v>6.786752917438465e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.868055555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>99876.96505321565</v>
+        <v>135551.8439282028</v>
       </c>
     </row>
     <row r="4">
@@ -15902,28 +15902,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>78.6124111613309</v>
+        <v>107.4368502447925</v>
       </c>
       <c r="AB4" t="n">
-        <v>107.5609690857019</v>
+        <v>146.9998382841785</v>
       </c>
       <c r="AC4" t="n">
-        <v>97.29550115895815</v>
+        <v>132.9703800339452</v>
       </c>
       <c r="AD4" t="n">
-        <v>78612.41116133089</v>
+        <v>107436.8502447925</v>
       </c>
       <c r="AE4" t="n">
-        <v>107560.9690857019</v>
+        <v>146999.8382841785</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.93057680498244e-06</v>
+        <v>7.087760110852334e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.625</v>
       </c>
       <c r="AH4" t="n">
-        <v>97295.50115895814</v>
+        <v>132970.3800339452</v>
       </c>
     </row>
     <row r="5">
@@ -16008,28 +16008,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>77.91967831969953</v>
+        <v>106.7441174031611</v>
       </c>
       <c r="AB5" t="n">
-        <v>106.6131414505663</v>
+        <v>146.0520106490428</v>
       </c>
       <c r="AC5" t="n">
-        <v>96.43813286303512</v>
+        <v>132.1130117380222</v>
       </c>
       <c r="AD5" t="n">
-        <v>77919.67831969952</v>
+        <v>106744.1174031611</v>
       </c>
       <c r="AE5" t="n">
-        <v>106613.1414505663</v>
+        <v>146052.0106490428</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.966644848841138e-06</v>
+        <v>7.15279932906939e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.572916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>96438.13286303512</v>
+        <v>132113.0117380222</v>
       </c>
     </row>
     <row r="6">
@@ -16114,28 +16114,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>76.68678954046659</v>
+        <v>105.340636423336</v>
       </c>
       <c r="AB6" t="n">
-        <v>104.9262486316064</v>
+        <v>144.1317060552362</v>
       </c>
       <c r="AC6" t="n">
-        <v>94.91223472714731</v>
+        <v>130.3759783194834</v>
       </c>
       <c r="AD6" t="n">
-        <v>76686.78954046659</v>
+        <v>105340.636423336</v>
       </c>
       <c r="AE6" t="n">
-        <v>104926.2486316064</v>
+        <v>144131.7060552362</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.034428335641216e-06</v>
+        <v>7.27502899605035e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.477430555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>94912.23472714731</v>
+        <v>130375.9783194834</v>
       </c>
     </row>
     <row r="7">
@@ -16220,28 +16220,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>75.81923331659247</v>
+        <v>104.4730801994619</v>
       </c>
       <c r="AB7" t="n">
-        <v>103.7392199322231</v>
+        <v>142.9446773558528</v>
       </c>
       <c r="AC7" t="n">
-        <v>93.8384943808275</v>
+        <v>129.3022379731636</v>
       </c>
       <c r="AD7" t="n">
-        <v>75819.23331659248</v>
+        <v>104473.0801994619</v>
       </c>
       <c r="AE7" t="n">
-        <v>103739.2199322231</v>
+        <v>142944.6773558528</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.070267295241108e-06</v>
+        <v>7.339655121138291e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.425347222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>93838.4943808275</v>
+        <v>129302.2379731636</v>
       </c>
     </row>
     <row r="8">
@@ -16326,28 +16326,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>75.9544662422133</v>
+        <v>104.6083131250827</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.9242515871131</v>
+        <v>143.1297090107428</v>
       </c>
       <c r="AC8" t="n">
-        <v>94.00586687426836</v>
+        <v>129.4696104666044</v>
       </c>
       <c r="AD8" t="n">
-        <v>75954.4662422133</v>
+        <v>104608.3131250827</v>
       </c>
       <c r="AE8" t="n">
-        <v>103924.2515871131</v>
+        <v>143129.7090107428</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.064489281157887e-06</v>
+        <v>7.329235994437323e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.434027777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>94005.86687426837</v>
+        <v>129469.6104666044</v>
       </c>
     </row>
   </sheetData>
@@ -16623,28 +16623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.79790476412617</v>
+        <v>114.467814916534</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.7607225515322</v>
+        <v>156.61991433232</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.4263658729658</v>
+        <v>141.6723295259167</v>
       </c>
       <c r="AD2" t="n">
-        <v>86797.90476412617</v>
+        <v>114467.814916534</v>
       </c>
       <c r="AE2" t="n">
-        <v>118760.7225515321</v>
+        <v>156619.91433232</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.781010574990188e-06</v>
+        <v>7.05415716035951e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.085069444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>107426.3658729658</v>
+        <v>141672.3295259167</v>
       </c>
     </row>
     <row r="3">
@@ -16729,28 +16729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.55079623185888</v>
+        <v>101.3059577302872</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.635444236511</v>
+        <v>138.6112806699481</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.03093868133666</v>
+        <v>125.3824145849998</v>
       </c>
       <c r="AD3" t="n">
-        <v>73550.79623185888</v>
+        <v>101305.9577302872</v>
       </c>
       <c r="AE3" t="n">
-        <v>100635.444236511</v>
+        <v>138611.2806699481</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.158045752451657e-06</v>
+        <v>7.757584284946206e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.538194444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>91030.93868133666</v>
+        <v>125382.4145849998</v>
       </c>
     </row>
     <row r="4">
@@ -16835,28 +16835,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>72.08754085080341</v>
+        <v>99.67211014863955</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.63335366988053</v>
+        <v>136.3757783284708</v>
       </c>
       <c r="AC4" t="n">
-        <v>89.21992482843297</v>
+        <v>123.3602654494451</v>
       </c>
       <c r="AD4" t="n">
-        <v>72087.5408508034</v>
+        <v>99672.11014863955</v>
       </c>
       <c r="AE4" t="n">
-        <v>98633.35366988054</v>
+        <v>136375.7783284708</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.280171211480317e-06</v>
+        <v>7.985431354977596e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.373263888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>89219.92482843297</v>
+        <v>123360.2654494451</v>
       </c>
     </row>
     <row r="5">
@@ -16941,28 +16941,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>71.47496646030952</v>
+        <v>99.05953575814567</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.79520236393243</v>
+        <v>135.5376270225227</v>
       </c>
       <c r="AC5" t="n">
-        <v>88.46176550677154</v>
+        <v>122.6021061277836</v>
       </c>
       <c r="AD5" t="n">
-        <v>71474.96646030952</v>
+        <v>99059.53575814568</v>
       </c>
       <c r="AE5" t="n">
-        <v>97795.20236393243</v>
+        <v>135537.6270225227</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.279773495048395e-06</v>
+        <v>7.984689343242799e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.381944444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>88461.76550677154</v>
+        <v>122602.1061277836</v>
       </c>
     </row>
     <row r="6">
@@ -17047,28 +17047,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>71.37045673582993</v>
+        <v>98.95502603366609</v>
       </c>
       <c r="AB6" t="n">
-        <v>97.65220754825592</v>
+        <v>135.3946322068462</v>
       </c>
       <c r="AC6" t="n">
-        <v>88.33241791560864</v>
+        <v>122.4727585366207</v>
       </c>
       <c r="AD6" t="n">
-        <v>71370.45673582994</v>
+        <v>98955.02603366609</v>
       </c>
       <c r="AE6" t="n">
-        <v>97652.20754825592</v>
+        <v>135394.6322068461</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.308965881151425e-06</v>
+        <v>8.039153004576833e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.338541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>88332.41791560865</v>
+        <v>122472.7585366207</v>
       </c>
     </row>
   </sheetData>
@@ -31301,28 +31301,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.42770551029994</v>
+        <v>98.32817344977768</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.73053784712341</v>
+        <v>134.5369448467862</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.40327248068954</v>
+        <v>121.6969276544329</v>
       </c>
       <c r="AD2" t="n">
-        <v>71427.70551029994</v>
+        <v>98328.17344977768</v>
       </c>
       <c r="AE2" t="n">
-        <v>97730.53784712341</v>
+        <v>134536.9448467862</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.137808845843431e-06</v>
+        <v>7.957159855437127e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.755208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>88403.27248068954</v>
+        <v>121696.9276544329</v>
       </c>
     </row>
     <row r="3">
@@ -31407,28 +31407,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.74476737855248</v>
+        <v>95.47464311743801</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.05962353239165</v>
+        <v>130.6326187572076</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.08270507599399</v>
+        <v>118.1652249670863</v>
       </c>
       <c r="AD3" t="n">
-        <v>68744.76737855248</v>
+        <v>95474.64311743801</v>
       </c>
       <c r="AE3" t="n">
-        <v>94059.62353239165</v>
+        <v>130632.6187572076</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.424266416627059e-06</v>
+        <v>8.508028386934236e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.381944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>85082.70507599399</v>
+        <v>118165.2249670863</v>
       </c>
     </row>
     <row r="4">
@@ -31513,28 +31513,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>67.86509246225162</v>
+        <v>85.79882726378783</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.85601350339107</v>
+        <v>117.3937406393813</v>
       </c>
       <c r="AC4" t="n">
-        <v>83.99396589888357</v>
+        <v>106.1898467959391</v>
       </c>
       <c r="AD4" t="n">
-        <v>67865.09246225162</v>
+        <v>85798.82726378783</v>
       </c>
       <c r="AE4" t="n">
-        <v>92856.01350339106</v>
+        <v>117393.7406393813</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.509731927021714e-06</v>
+        <v>8.672381732792624e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.277777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>83993.96589888357</v>
+        <v>106189.8467959391</v>
       </c>
     </row>
   </sheetData>
@@ -31810,28 +31810,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.29833238544377</v>
+        <v>86.33394043515914</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.87108266129883</v>
+        <v>118.1259060879782</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.86654424592811</v>
+        <v>106.8521354017227</v>
       </c>
       <c r="AD2" t="n">
-        <v>61298.33238544377</v>
+        <v>86333.94043515914</v>
       </c>
       <c r="AE2" t="n">
-        <v>83871.08266129883</v>
+        <v>118125.9060879782</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.784590858277961e-06</v>
+        <v>9.868693857282503e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.338541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>75866.5442459281</v>
+        <v>106852.1354017227</v>
       </c>
     </row>
     <row r="3">
@@ -31916,28 +31916,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.43355373487699</v>
+        <v>86.46916178459234</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.05609847713818</v>
+        <v>118.3109219038175</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.03390241197513</v>
+        <v>107.0194935677697</v>
       </c>
       <c r="AD3" t="n">
-        <v>61433.55373487699</v>
+        <v>86469.16178459235</v>
       </c>
       <c r="AE3" t="n">
-        <v>84056.09847713818</v>
+        <v>118310.9219038175</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.78568008512968e-06</v>
+        <v>9.87094049584767e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.338541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>76033.90241197514</v>
+        <v>107019.4935677697</v>
       </c>
     </row>
   </sheetData>
@@ -32213,28 +32213,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.3745339870468</v>
+        <v>141.9300970132242</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.0733538467032</v>
+        <v>194.1950202473719</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.7049495497984</v>
+        <v>175.6613200694404</v>
       </c>
       <c r="AD2" t="n">
-        <v>102374.5339870468</v>
+        <v>141930.0970132242</v>
       </c>
       <c r="AE2" t="n">
-        <v>140073.3538467032</v>
+        <v>194195.0202473719</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.09795169418506e-06</v>
+        <v>5.442978919379503e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.901041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>126704.9495497984</v>
+        <v>175661.3200694404</v>
       </c>
     </row>
     <row r="3">
@@ -32319,28 +32319,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.56886087571628</v>
+        <v>126.2142874402575</v>
       </c>
       <c r="AB3" t="n">
-        <v>132.1297757675637</v>
+        <v>172.6919562570642</v>
       </c>
       <c r="AC3" t="n">
-        <v>119.5194954136476</v>
+        <v>156.2104783266209</v>
       </c>
       <c r="AD3" t="n">
-        <v>96568.86087571629</v>
+        <v>126214.2874402575</v>
       </c>
       <c r="AE3" t="n">
-        <v>132129.7757675637</v>
+        <v>172691.9562570642</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.492350598630124e-06</v>
+        <v>6.135922236329952e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.119791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>119519.4954136476</v>
+        <v>156210.4783266209</v>
       </c>
     </row>
     <row r="4">
@@ -32425,28 +32425,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>84.80130774751585</v>
+        <v>114.5319856580776</v>
       </c>
       <c r="AB4" t="n">
-        <v>116.0288904297635</v>
+        <v>156.7077155719133</v>
       </c>
       <c r="AC4" t="n">
-        <v>104.9552559747474</v>
+        <v>141.751751138433</v>
       </c>
       <c r="AD4" t="n">
-        <v>84801.30774751585</v>
+        <v>114531.9856580776</v>
       </c>
       <c r="AE4" t="n">
-        <v>116028.8904297635</v>
+        <v>156707.7155719133</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.623275278645034e-06</v>
+        <v>6.365951734428734e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.894097222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>104955.2559747474</v>
+        <v>141751.751138433</v>
       </c>
     </row>
     <row r="5">
@@ -32531,28 +32531,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>83.51749957506597</v>
+        <v>113.2481774856277</v>
       </c>
       <c r="AB5" t="n">
-        <v>114.2723274505992</v>
+        <v>154.9511525927489</v>
       </c>
       <c r="AC5" t="n">
-        <v>103.3663369009624</v>
+        <v>140.1628320646479</v>
       </c>
       <c r="AD5" t="n">
-        <v>83517.49957506597</v>
+        <v>113248.1774856277</v>
       </c>
       <c r="AE5" t="n">
-        <v>114272.3274505992</v>
+        <v>154951.1525927489</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.708162133983772e-06</v>
+        <v>6.515094590661265e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.763888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>103366.3369009624</v>
+        <v>140162.832064648</v>
       </c>
     </row>
     <row r="6">
@@ -32637,28 +32637,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>82.38636948479058</v>
+        <v>112.1170473953523</v>
       </c>
       <c r="AB6" t="n">
-        <v>112.7246653591475</v>
+        <v>153.4034905012972</v>
       </c>
       <c r="AC6" t="n">
-        <v>101.9663815073609</v>
+        <v>138.7628766710465</v>
       </c>
       <c r="AD6" t="n">
-        <v>82386.36948479057</v>
+        <v>112117.0473953523</v>
       </c>
       <c r="AE6" t="n">
-        <v>112724.6653591475</v>
+        <v>153403.4905012972</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.769833123723777e-06</v>
+        <v>6.623448086851083e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.668402777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>101966.3815073609</v>
+        <v>138762.8766710465</v>
       </c>
     </row>
     <row r="7">
@@ -32743,28 +32743,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>81.8557414668611</v>
+        <v>111.5864193774228</v>
       </c>
       <c r="AB7" t="n">
-        <v>111.9986366953607</v>
+        <v>152.6774618375105</v>
       </c>
       <c r="AC7" t="n">
-        <v>101.3096440002581</v>
+        <v>138.1061391639437</v>
       </c>
       <c r="AD7" t="n">
-        <v>81855.7414668611</v>
+        <v>111586.4193774228</v>
       </c>
       <c r="AE7" t="n">
-        <v>111998.6366953607</v>
+        <v>152677.4618375105</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.789503830630868e-06</v>
+        <v>6.658008742921208e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.642361111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>101309.6440002582</v>
+        <v>138106.1391639437</v>
       </c>
     </row>
     <row r="8">
@@ -32849,28 +32849,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>80.94653214955369</v>
+        <v>110.6772100601154</v>
       </c>
       <c r="AB8" t="n">
-        <v>110.7546163959372</v>
+        <v>151.433441538087</v>
       </c>
       <c r="AC8" t="n">
-        <v>100.1843512522178</v>
+        <v>136.9808464159034</v>
       </c>
       <c r="AD8" t="n">
-        <v>80946.53214955369</v>
+        <v>110677.2100601154</v>
       </c>
       <c r="AE8" t="n">
-        <v>110754.6163959372</v>
+        <v>151433.441538087</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.829460723384573e-06</v>
+        <v>6.72821142727892e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.581597222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>100184.3512522178</v>
+        <v>136980.8464159034</v>
       </c>
     </row>
     <row r="9">
@@ -32955,28 +32955,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>80.7599810193163</v>
+        <v>110.4906589298781</v>
       </c>
       <c r="AB9" t="n">
-        <v>110.4993689094915</v>
+        <v>151.1781940516413</v>
       </c>
       <c r="AC9" t="n">
-        <v>99.95346422763627</v>
+        <v>136.7499593913219</v>
       </c>
       <c r="AD9" t="n">
-        <v>80759.9810193163</v>
+        <v>110490.658929878</v>
       </c>
       <c r="AE9" t="n">
-        <v>110499.3689094915</v>
+        <v>151178.1940516413</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.820203920134177e-06</v>
+        <v>6.711947589128274e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.590277777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>99953.46422763627</v>
+        <v>136749.9593913219</v>
       </c>
     </row>
     <row r="10">
@@ -33061,28 +33061,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>79.98814122019752</v>
+        <v>109.7188191307593</v>
       </c>
       <c r="AB10" t="n">
-        <v>109.443303645169</v>
+        <v>150.1221287873188</v>
       </c>
       <c r="AC10" t="n">
-        <v>98.99818834994346</v>
+        <v>135.7946835136291</v>
       </c>
       <c r="AD10" t="n">
-        <v>79988.14122019752</v>
+        <v>109718.8191307593</v>
       </c>
       <c r="AE10" t="n">
-        <v>109443.303645169</v>
+        <v>150122.1287873188</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.854941551480743e-06</v>
+        <v>6.772980237081899e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.546875</v>
       </c>
       <c r="AH10" t="n">
-        <v>98998.18834994346</v>
+        <v>135794.6835136291</v>
       </c>
     </row>
   </sheetData>
@@ -33358,28 +33358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.7108101174815</v>
+        <v>167.7424372071432</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.3713204890763</v>
+        <v>229.5126028607538</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.8250049898237</v>
+        <v>207.6082421667509</v>
       </c>
       <c r="AD2" t="n">
-        <v>126710.8101174815</v>
+        <v>167742.4372071431</v>
       </c>
       <c r="AE2" t="n">
-        <v>173371.3204890763</v>
+        <v>229512.6028607538</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.639723910319937e-06</v>
+        <v>4.513633709491009e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.803819444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>156825.0049898237</v>
+        <v>207608.2421667509</v>
       </c>
     </row>
     <row r="3">
@@ -33464,28 +33464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.3908249381246</v>
+        <v>136.2498861099425</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.200376195331</v>
+        <v>186.4231050962867</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.4380946777867</v>
+        <v>168.6311455924209</v>
       </c>
       <c r="AD3" t="n">
-        <v>105390.8249381246</v>
+        <v>136249.8861099425</v>
       </c>
       <c r="AE3" t="n">
-        <v>144200.376195331</v>
+        <v>186423.1050962867</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.144424109550149e-06</v>
+        <v>5.376614805175449e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.545138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>130438.0946777867</v>
+        <v>168631.1455924209</v>
       </c>
     </row>
     <row r="4">
@@ -33570,28 +33570,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>102.5390834894936</v>
+        <v>133.2275524607193</v>
       </c>
       <c r="AB4" t="n">
-        <v>140.2984977353625</v>
+        <v>182.2878148614714</v>
       </c>
       <c r="AC4" t="n">
-        <v>126.9086060217156</v>
+        <v>164.8905216536987</v>
       </c>
       <c r="AD4" t="n">
-        <v>102539.0834894936</v>
+        <v>133227.5524607193</v>
       </c>
       <c r="AE4" t="n">
-        <v>140298.4977353625</v>
+        <v>182287.8148614714</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.314405162830418e-06</v>
+        <v>5.667263463188938e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.215277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>126908.6060217156</v>
+        <v>164890.5216536987</v>
       </c>
     </row>
     <row r="5">
@@ -33676,28 +33676,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>101.1838113799801</v>
+        <v>131.8722803512059</v>
       </c>
       <c r="AB5" t="n">
-        <v>138.4441546447414</v>
+        <v>180.4334717708503</v>
       </c>
       <c r="AC5" t="n">
-        <v>125.2312388330758</v>
+        <v>163.213154465059</v>
       </c>
       <c r="AD5" t="n">
-        <v>101183.8113799801</v>
+        <v>131872.2803512058</v>
       </c>
       <c r="AE5" t="n">
-        <v>138444.1546447414</v>
+        <v>180433.4717708503</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.391531248554655e-06</v>
+        <v>5.799140474661634e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.076388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>125231.2388330759</v>
+        <v>163213.154465059</v>
       </c>
     </row>
     <row r="6">
@@ -33782,28 +33782,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>89.86207640137553</v>
+        <v>130.7230217818939</v>
       </c>
       <c r="AB6" t="n">
-        <v>122.9532573673266</v>
+        <v>178.8610054946088</v>
       </c>
       <c r="AC6" t="n">
-        <v>111.2187710502017</v>
+        <v>161.7907621632513</v>
       </c>
       <c r="AD6" t="n">
-        <v>89862.07640137553</v>
+        <v>130723.0217818939</v>
       </c>
       <c r="AE6" t="n">
-        <v>122953.2573673266</v>
+        <v>178861.0054946088</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.445313111469711e-06</v>
+        <v>5.891101466666741e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.980902777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>111218.7710502017</v>
+        <v>161790.7621632513</v>
       </c>
     </row>
     <row r="7">
@@ -33888,28 +33888,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>88.71773364122411</v>
+        <v>119.4914539584704</v>
       </c>
       <c r="AB7" t="n">
-        <v>121.3875171180486</v>
+        <v>163.4934788968068</v>
       </c>
       <c r="AC7" t="n">
-        <v>109.8024628527842</v>
+        <v>147.8898907354795</v>
       </c>
       <c r="AD7" t="n">
-        <v>88717.73364122411</v>
+        <v>119491.4539584704</v>
       </c>
       <c r="AE7" t="n">
-        <v>121387.5171180487</v>
+        <v>163493.4788968068</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.507137343828173e-06</v>
+        <v>5.996814014159155e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.868055555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>109802.4628527842</v>
+        <v>147889.8907354795</v>
       </c>
     </row>
     <row r="8">
@@ -33994,28 +33994,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>87.89895431541308</v>
+        <v>118.6726746326593</v>
       </c>
       <c r="AB8" t="n">
-        <v>120.2672271224801</v>
+        <v>162.3731889012382</v>
       </c>
       <c r="AC8" t="n">
-        <v>108.7890917620554</v>
+        <v>146.8765196447508</v>
       </c>
       <c r="AD8" t="n">
-        <v>87898.95431541308</v>
+        <v>118672.6746326593</v>
       </c>
       <c r="AE8" t="n">
-        <v>120267.2271224801</v>
+        <v>162373.1889012382</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.544241372764717e-06</v>
+        <v>6.060257768678778e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.807291666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>108789.0917620554</v>
+        <v>146876.5196447508</v>
       </c>
     </row>
     <row r="9">
@@ -34100,28 +34100,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>87.86202426515692</v>
+        <v>118.6357445824032</v>
       </c>
       <c r="AB9" t="n">
-        <v>120.2166977984808</v>
+        <v>162.3226595772389</v>
       </c>
       <c r="AC9" t="n">
-        <v>108.7433848858202</v>
+        <v>146.8308127685156</v>
       </c>
       <c r="AD9" t="n">
-        <v>87862.02426515691</v>
+        <v>118635.7445824032</v>
       </c>
       <c r="AE9" t="n">
-        <v>120216.6977984808</v>
+        <v>162322.6595772389</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.531359347373066e-06</v>
+        <v>6.038230940862823e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>108743.3848858202</v>
+        <v>146830.8127685156</v>
       </c>
     </row>
     <row r="10">
@@ -34206,28 +34206,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>87.26772937279635</v>
+        <v>118.0414496900426</v>
       </c>
       <c r="AB10" t="n">
-        <v>119.4035573083132</v>
+        <v>161.5095190870714</v>
       </c>
       <c r="AC10" t="n">
-        <v>108.0078493827842</v>
+        <v>146.0952772654795</v>
       </c>
       <c r="AD10" t="n">
-        <v>87267.72937279636</v>
+        <v>118041.4496900426</v>
       </c>
       <c r="AE10" t="n">
-        <v>119403.5573083132</v>
+        <v>161509.5190870714</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.561251339994578e-06</v>
+        <v>6.089342917010344e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.78125</v>
       </c>
       <c r="AH10" t="n">
-        <v>108007.8493827842</v>
+        <v>146095.2772654795</v>
       </c>
     </row>
     <row r="11">
@@ -34312,28 +34312,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>86.98669645003288</v>
+        <v>117.7604167672791</v>
       </c>
       <c r="AB11" t="n">
-        <v>119.0190356650909</v>
+        <v>161.1249974438491</v>
       </c>
       <c r="AC11" t="n">
-        <v>107.6600259455113</v>
+        <v>145.7474538282067</v>
       </c>
       <c r="AD11" t="n">
-        <v>86986.69645003288</v>
+        <v>117760.4167672791</v>
       </c>
       <c r="AE11" t="n">
-        <v>119019.0356650909</v>
+        <v>161124.997443849</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.55811979791042e-06</v>
+        <v>6.083988329032984e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.789930555555555</v>
       </c>
       <c r="AH11" t="n">
-        <v>107660.0259455113</v>
+        <v>145747.4538282067</v>
       </c>
     </row>
     <row r="12">
@@ -34418,28 +34418,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>86.12882355055669</v>
+        <v>116.9025438678029</v>
       </c>
       <c r="AB12" t="n">
-        <v>117.8452561173469</v>
+        <v>159.9512178961051</v>
       </c>
       <c r="AC12" t="n">
-        <v>106.5982702703938</v>
+        <v>144.6856981530891</v>
       </c>
       <c r="AD12" t="n">
-        <v>86128.82355055668</v>
+        <v>116902.5438678029</v>
       </c>
       <c r="AE12" t="n">
-        <v>117845.2561173469</v>
+        <v>159951.2178961051</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.592993789302185e-06</v>
+        <v>6.143618967871761e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.729166666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>106598.2702703938</v>
+        <v>144685.6981530891</v>
       </c>
     </row>
     <row r="13">
@@ -34524,28 +34524,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>85.92958648275604</v>
+        <v>116.7033068000023</v>
       </c>
       <c r="AB13" t="n">
-        <v>117.5726511714631</v>
+        <v>159.6786129502213</v>
       </c>
       <c r="AC13" t="n">
-        <v>106.3516823579416</v>
+        <v>144.4391102406369</v>
       </c>
       <c r="AD13" t="n">
-        <v>85929.58648275604</v>
+        <v>116703.3068000023</v>
       </c>
       <c r="AE13" t="n">
-        <v>117572.6511714631</v>
+        <v>159678.6129502213</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.589672456788683e-06</v>
+        <v>6.137939859410925e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.737847222222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>106351.6823579416</v>
+        <v>144439.1102406369</v>
       </c>
     </row>
     <row r="14">
@@ -34630,28 +34630,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>85.38777154920633</v>
+        <v>116.1614918664526</v>
       </c>
       <c r="AB14" t="n">
-        <v>116.8313160761929</v>
+        <v>158.937277854951</v>
       </c>
       <c r="AC14" t="n">
-        <v>105.6810992436934</v>
+        <v>143.7685271263887</v>
       </c>
       <c r="AD14" t="n">
-        <v>85387.77154920633</v>
+        <v>116161.4918664526</v>
       </c>
       <c r="AE14" t="n">
-        <v>116831.3160761929</v>
+        <v>158937.277854951</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.592543037032496e-06</v>
+        <v>6.142848231723505e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.729166666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>105681.0992436934</v>
+        <v>143768.5271263887</v>
       </c>
     </row>
   </sheetData>
@@ -34927,28 +34927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.11692595599762</v>
+        <v>82.36011915564684</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.51814203078678</v>
+        <v>112.6887485007303</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.92904215980022</v>
+        <v>101.9338925035014</v>
       </c>
       <c r="AD2" t="n">
-        <v>58116.92595599761</v>
+        <v>82360.11915564684</v>
       </c>
       <c r="AE2" t="n">
-        <v>79518.14203078678</v>
+        <v>112688.7485007303</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.861844983208289e-06</v>
+        <v>1.042117311843953e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.442708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>71929.04215980021</v>
+        <v>101933.8925035014</v>
       </c>
     </row>
   </sheetData>
@@ -35224,28 +35224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.83276665509381</v>
+        <v>117.882247234311</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.9131544794092</v>
+        <v>161.2916912636229</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.1824955256224</v>
+        <v>145.8982386237776</v>
       </c>
       <c r="AD2" t="n">
-        <v>89832.7666550938</v>
+        <v>117882.247234311</v>
       </c>
       <c r="AE2" t="n">
-        <v>122913.1544794092</v>
+        <v>161291.6912636229</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.626795881058326e-06</v>
+        <v>6.682126729443135e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>111182.4955256224</v>
+        <v>145898.2386237776</v>
       </c>
     </row>
     <row r="3">
@@ -35330,28 +35330,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.11274170990352</v>
+        <v>104.2474736351413</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.1408110646275</v>
+        <v>142.6359925014904</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.20175821919207</v>
+        <v>129.0230135680595</v>
       </c>
       <c r="AD3" t="n">
-        <v>76112.74170990352</v>
+        <v>104247.4736351413</v>
       </c>
       <c r="AE3" t="n">
-        <v>104140.8110646275</v>
+        <v>142635.9925014905</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.009074051319363e-06</v>
+        <v>7.386448467792106e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.659722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>94201.75821919207</v>
+        <v>129023.0135680595</v>
       </c>
     </row>
     <row r="4">
@@ -35436,28 +35436,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>74.62389706788568</v>
+        <v>102.5880367925313</v>
       </c>
       <c r="AB4" t="n">
-        <v>102.1037081422298</v>
+        <v>140.3654778042459</v>
       </c>
       <c r="AC4" t="n">
-        <v>92.35907354061544</v>
+        <v>126.9691936068319</v>
       </c>
       <c r="AD4" t="n">
-        <v>74623.89706788569</v>
+        <v>102588.0367925313</v>
       </c>
       <c r="AE4" t="n">
-        <v>102103.7081422298</v>
+        <v>140365.4778042459</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.128713976247618e-06</v>
+        <v>7.606876957977325e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.494791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>92359.07354061544</v>
+        <v>126969.1936068319</v>
       </c>
     </row>
     <row r="5">
@@ -35542,28 +35542,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>73.60178717786694</v>
+        <v>101.5659269025125</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.705212298401</v>
+        <v>138.966981960417</v>
       </c>
       <c r="AC5" t="n">
-        <v>91.09404817731993</v>
+        <v>125.7041682435363</v>
       </c>
       <c r="AD5" t="n">
-        <v>73601.78717786694</v>
+        <v>101565.9269025125</v>
       </c>
       <c r="AE5" t="n">
-        <v>100705.212298401</v>
+        <v>138966.981960417</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.178069691073884e-06</v>
+        <v>7.697811532766554e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.425347222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>91094.04817731993</v>
+        <v>125704.1682435363</v>
       </c>
     </row>
     <row r="6">
@@ -35648,28 +35648,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>73.01057806044938</v>
+        <v>100.974717785095</v>
       </c>
       <c r="AB6" t="n">
-        <v>99.89629390164522</v>
+        <v>138.1580635636613</v>
       </c>
       <c r="AC6" t="n">
-        <v>90.36233181702619</v>
+        <v>124.9724518832426</v>
       </c>
       <c r="AD6" t="n">
-        <v>73010.57806044938</v>
+        <v>100974.717785095</v>
       </c>
       <c r="AE6" t="n">
-        <v>99896.29390164523</v>
+        <v>138158.0635636613</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.216451663058947e-06</v>
+        <v>7.768527726713287e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.381944444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>90362.33181702619</v>
+        <v>124972.4518832426</v>
       </c>
     </row>
   </sheetData>
@@ -35945,28 +35945,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.6099631913179</v>
+        <v>136.3796793003553</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.5542578859617</v>
+        <v>186.6006938654808</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.8080269579393</v>
+        <v>168.7917855387305</v>
       </c>
       <c r="AD2" t="n">
-        <v>97609.9631913179</v>
+        <v>136379.6793003553</v>
       </c>
       <c r="AE2" t="n">
-        <v>133554.2578859617</v>
+        <v>186600.6938654808</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.284846573622965e-06</v>
+        <v>5.868138681322532e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.649305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>120808.0269579393</v>
+        <v>168791.7855387305</v>
       </c>
     </row>
     <row r="3">
@@ -36051,28 +36051,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.03703163425379</v>
+        <v>121.7214068887195</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.6149300172307</v>
+        <v>166.5445988745522</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.7716805559713</v>
+        <v>150.6498161048237</v>
       </c>
       <c r="AD3" t="n">
-        <v>83037.0316342538</v>
+        <v>121721.4068887195</v>
       </c>
       <c r="AE3" t="n">
-        <v>113614.9300172307</v>
+        <v>166544.5988745522</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.645150580132347e-06</v>
+        <v>6.511795494584665e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.989583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>102771.6805559713</v>
+        <v>150649.8161048237</v>
       </c>
     </row>
     <row r="4">
@@ -36157,28 +36157,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>80.77412763109427</v>
+        <v>109.915420353801</v>
       </c>
       <c r="AB4" t="n">
-        <v>110.5187249278306</v>
+        <v>150.3911272541181</v>
       </c>
       <c r="AC4" t="n">
-        <v>99.97097293475139</v>
+        <v>136.0380091442989</v>
       </c>
       <c r="AD4" t="n">
-        <v>80774.12763109428</v>
+        <v>109915.420353801</v>
       </c>
       <c r="AE4" t="n">
-        <v>110518.7249278306</v>
+        <v>150391.1272541182</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.815001355245895e-06</v>
+        <v>6.815221508907496e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.720486111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>99970.97293475139</v>
+        <v>136038.0091442989</v>
       </c>
     </row>
     <row r="5">
@@ -36263,28 +36263,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>79.35852163130109</v>
+        <v>108.4998143540078</v>
       </c>
       <c r="AB5" t="n">
-        <v>108.5818303467855</v>
+        <v>148.454232673073</v>
       </c>
       <c r="AC5" t="n">
-        <v>98.21893285407199</v>
+        <v>134.2859690636195</v>
       </c>
       <c r="AD5" t="n">
-        <v>79358.52163130109</v>
+        <v>108499.8143540078</v>
       </c>
       <c r="AE5" t="n">
-        <v>108581.8303467855</v>
+        <v>148454.232673073</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.912403932443713e-06</v>
+        <v>6.989224104798789e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.581597222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>98218.93285407199</v>
+        <v>134285.9690636195</v>
       </c>
     </row>
     <row r="6">
@@ -36369,28 +36369,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>78.88291176129155</v>
+        <v>108.0242044839983</v>
       </c>
       <c r="AB6" t="n">
-        <v>107.9310799402122</v>
+        <v>147.8034822664997</v>
       </c>
       <c r="AC6" t="n">
-        <v>97.6302891529679</v>
+        <v>133.6973253625154</v>
       </c>
       <c r="AD6" t="n">
-        <v>78882.91176129156</v>
+        <v>108024.2044839983</v>
       </c>
       <c r="AE6" t="n">
-        <v>107931.0799402122</v>
+        <v>147803.4822664997</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.920529199084956e-06</v>
+        <v>7.003739300685383e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.572916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>97630.2891529679</v>
+        <v>133697.3253625154</v>
       </c>
     </row>
     <row r="7">
@@ -36475,28 +36475,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>78.16494726876942</v>
+        <v>107.3062399914762</v>
       </c>
       <c r="AB7" t="n">
-        <v>106.948729247186</v>
+        <v>146.8211315734735</v>
       </c>
       <c r="AC7" t="n">
-        <v>96.74169263134591</v>
+        <v>132.8087288408934</v>
       </c>
       <c r="AD7" t="n">
-        <v>78164.94726876942</v>
+        <v>107306.2399914762</v>
       </c>
       <c r="AE7" t="n">
-        <v>106948.729247186</v>
+        <v>146821.1315734735</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.943068638436516e-06</v>
+        <v>7.044004364197417e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.538194444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>96741.69263134591</v>
+        <v>132808.7288408934</v>
       </c>
     </row>
     <row r="8">
@@ -36581,28 +36581,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>77.59083604602615</v>
+        <v>106.5615365681407</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.1632049442294</v>
+        <v>145.8021954956701</v>
       </c>
       <c r="AC8" t="n">
-        <v>96.03113766537302</v>
+        <v>131.8870385922695</v>
       </c>
       <c r="AD8" t="n">
-        <v>77590.83604602616</v>
+        <v>106561.5365681407</v>
       </c>
       <c r="AE8" t="n">
-        <v>106163.2049442294</v>
+        <v>145802.1954956701</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.978739313660304e-06</v>
+        <v>7.107727422300168e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.486111111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>96031.13766537303</v>
+        <v>131887.0385922695</v>
       </c>
     </row>
     <row r="9">
@@ -36687,28 +36687,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>77.57606293262732</v>
+        <v>106.5467634547418</v>
       </c>
       <c r="AB9" t="n">
-        <v>106.1429917187334</v>
+        <v>145.781982270174</v>
       </c>
       <c r="AC9" t="n">
-        <v>96.01285356174887</v>
+        <v>131.8687544886453</v>
       </c>
       <c r="AD9" t="n">
-        <v>77576.06293262732</v>
+        <v>106546.7634547419</v>
       </c>
       <c r="AE9" t="n">
-        <v>106142.9917187334</v>
+        <v>145781.982270174</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.976651396845372e-06</v>
+        <v>7.10399751128287e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.494791666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>96012.85356174887</v>
+        <v>131868.7544886453</v>
       </c>
     </row>
   </sheetData>
